--- a/anti_trans_legislation_2025_with_dates.xlsx
+++ b/anti_trans_legislation_2025_with_dates.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H83"/>
+  <dimension ref="A1:I83"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,30 +446,35 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>Year</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>Date</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>Link</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>Proposed</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>Passed</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>Denied/Vetoed</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>Status Notes</t>
         </is>
@@ -486,32 +491,35 @@
           <t>Federal</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="C2" t="n">
+        <v>2025</v>
+      </c>
+      <c r="D2" t="inlineStr">
         <is>
           <t>2025-01-14</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>https://www.congress.gov/bill/119th-congress/house-bill/28</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
       <c r="F2" t="inlineStr">
         <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
           <t>Yes (House)</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
       <c r="H2" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
         <is>
           <t>Passed House 218-206 on Jan 14, 2025. Awaiting Senate action.</t>
         </is>
@@ -528,32 +536,35 @@
           <t>Federal</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="C3" t="n">
+        <v>2025</v>
+      </c>
+      <c r="D3" t="inlineStr">
         <is>
           <t>2025-12-17</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>https://www.congress.gov/bill/119th-congress/house-bill/3492</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
       <c r="F3" t="inlineStr">
         <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
           <t>Pending</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
       <c r="H3" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
         <is>
           <t>Scheduled for House floor vote Dec 17, 2025. Would criminalize gender-affirming care for minors.</t>
         </is>
@@ -570,32 +581,35 @@
           <t>Federal</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C4" t="n">
+        <v>2025</v>
+      </c>
+      <c r="D4" t="inlineStr">
         <is>
           <t>2025-12-17</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>https://www.congress.gov/bill/119th-congress/house-bill/498</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
       <c r="F4" t="inlineStr">
         <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
           <t>Pending</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
       <c r="H4" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
         <is>
           <t>Scheduled for House vote Dec 17, 2025. Would ban Medicaid coverage of gender-affirming care for youth.</t>
         </is>
@@ -612,17 +626,15 @@
           <t>AL</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr"/>
-      <c r="D5" t="inlineStr">
+      <c r="C5" t="n">
+        <v>2025</v>
+      </c>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr">
         <is>
           <t>https://alison.legislature.state.al.us/files/pdf/SearchableInstruments/2025RS/SB79-enr.pdf</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
       <c r="F5" t="inlineStr">
         <is>
           <t>Yes</t>
@@ -630,10 +642,15 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
         <is>
           <t>Bans trans people from single-sex spaces based on sex at birth.</t>
         </is>
@@ -650,17 +667,15 @@
           <t>AR</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr"/>
-      <c r="D6" t="inlineStr">
+      <c r="C6" t="n">
+        <v>2025</v>
+      </c>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr">
         <is>
           <t>https://arkleg.state.ar.us/Home/FTPDocument?path=%2FBills%2F2025R%2FPublic%2FSB486.pdf</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
       <c r="F6" t="inlineStr">
         <is>
           <t>Yes</t>
@@ -668,10 +683,15 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
         <is>
           <t>Bans trans people from single-sex spaces; allows lawsuits.</t>
         </is>
@@ -688,17 +708,15 @@
           <t>AR</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr"/>
-      <c r="D7" t="inlineStr">
+      <c r="C7" t="n">
+        <v>2025</v>
+      </c>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr">
         <is>
           <t>https://arkleg.state.ar.us/Home/FTPDocument?path=%2FBills%2F2025R%2FPublic%2FSB444.pdf</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
       <c r="F7" t="inlineStr">
         <is>
           <t>Yes</t>
@@ -706,10 +724,15 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
         <is>
           <t>Allows doctors to refuse gender transition treatments.</t>
         </is>
@@ -726,17 +749,15 @@
           <t>AR</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr"/>
-      <c r="D8" t="inlineStr">
+      <c r="C8" t="n">
+        <v>2025</v>
+      </c>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr">
         <is>
           <t>https://arkleg.state.ar.us/Home/FTPDocument?path=%2FBills%2F2025R%2FPublic%2FHB1916.pdf</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
       <c r="F8" t="inlineStr">
         <is>
           <t>Yes</t>
@@ -744,10 +765,15 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
         <is>
           <t>Defines gender-affirming care for youth as malpractice.</t>
         </is>
@@ -764,17 +790,15 @@
           <t>AR</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr"/>
-      <c r="D9" t="inlineStr">
+      <c r="C9" t="n">
+        <v>2025</v>
+      </c>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr">
         <is>
           <t>https://arkleg.state.ar.us/Home/FTPDocument?path=%2FBills%2F2025R%2FPublic%2FHB1669.pdf</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
       <c r="F9" t="inlineStr">
         <is>
           <t>Yes</t>
@@ -782,10 +806,15 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
         <is>
           <t>Allows anti-LGBTQ+ parents to foster LGBTQ+ children.</t>
         </is>
@@ -802,17 +831,15 @@
           <t>AR</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr"/>
-      <c r="D10" t="inlineStr">
+      <c r="C10" t="n">
+        <v>2025</v>
+      </c>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr">
         <is>
           <t>https://arkleg.state.ar.us/Home/FTPDocument?path=%2FBills%2F2025R%2FPublic%2FHB1615.pdf</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
       <c r="F10" t="inlineStr">
         <is>
           <t>Yes</t>
@@ -820,10 +847,15 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
         <is>
           <t>Creates religious exemptions for nondiscrimination protections.</t>
         </is>
@@ -840,17 +872,15 @@
           <t>AR</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr"/>
-      <c r="D11" t="inlineStr">
+      <c r="C11" t="n">
+        <v>2025</v>
+      </c>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr">
         <is>
           <t>https://arkleg.state.ar.us/Home/FTPDocument?path=%2FBills%2F2025R%2FPublic%2FHB1307.pdf</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
       <c r="F11" t="inlineStr">
         <is>
           <t>Yes</t>
@@ -858,10 +888,15 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
         <is>
           <t>Restricts public funds from covering gender-affirming care.</t>
         </is>
@@ -878,32 +913,35 @@
           <t>AZ</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="C12" t="n">
+        <v>2025</v>
+      </c>
+      <c r="D12" t="inlineStr">
         <is>
           <t>2025-05-01</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>https://www.azleg.gov/legtext/56leg/2R/bills/HB2438P.pdf</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
           <t>Vetoed</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
+      <c r="I12" t="inlineStr">
         <is>
           <t>Vetoed by Gov. Hobbs May 2025. Would have banned gender marker changes on birth certificates.</t>
         </is>
@@ -920,32 +958,35 @@
           <t>AZ</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="C13" t="n">
+        <v>2025</v>
+      </c>
+      <c r="D13" t="inlineStr">
         <is>
           <t>2025-05-01</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="E13" t="inlineStr">
         <is>
           <t>https://www.azleg.gov/legtext/56leg/2R/bills/SB1694P.pdf</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
           <t>Vetoed</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
+      <c r="I13" t="inlineStr">
         <is>
           <t>Vetoed by Gov. Hobbs May 2025. Would have banned DEI/gender identity courses.</t>
         </is>
@@ -962,32 +1003,35 @@
           <t>AZ</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="C14" t="n">
+        <v>2025</v>
+      </c>
+      <c r="D14" t="inlineStr">
         <is>
           <t>2025-05-01</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="E14" t="inlineStr">
         <is>
           <t>https://www.azleg.gov/legtext/56leg/2R/bills/SB1256P.pdf</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
           <t>Vetoed</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
+      <c r="I14" t="inlineStr">
         <is>
           <t>Vetoed by Gov. Hobbs May 2025. Would have banned gender identity policies at state agencies.</t>
         </is>
@@ -1004,28 +1048,31 @@
           <t>AZ</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr"/>
-      <c r="D15" t="inlineStr">
+      <c r="C15" t="n">
+        <v>2025</v>
+      </c>
+      <c r="D15" t="inlineStr"/>
+      <c r="E15" t="inlineStr">
         <is>
           <t>https://www.azleg.gov/legtext/56leg/2R/bills/HB2062P.pdf</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
           <t>Vetoed</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
+      <c r="I15" t="inlineStr">
         <is>
           <t>Vetoed by Gov. Hobbs 2025. Would have erased trans people from legal recognition.</t>
         </is>
@@ -1042,17 +1089,15 @@
           <t>GA</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr"/>
-      <c r="D16" t="inlineStr">
+      <c r="C16" t="n">
+        <v>2025</v>
+      </c>
+      <c r="D16" t="inlineStr"/>
+      <c r="E16" t="inlineStr">
         <is>
           <t>https://legiscan.com/GA/bill/SB1/2025</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
       <c r="F16" t="inlineStr">
         <is>
           <t>Yes</t>
@@ -1060,10 +1105,15 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
         <is>
           <t>Bans trans students from facilities and sports teams aligned with gender identity.</t>
         </is>
@@ -1080,17 +1130,15 @@
           <t>GA</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr"/>
-      <c r="D17" t="inlineStr">
+      <c r="C17" t="n">
+        <v>2025</v>
+      </c>
+      <c r="D17" t="inlineStr"/>
+      <c r="E17" t="inlineStr">
         <is>
           <t>https://legiscan.com/GA/bill/SB185/2025</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
       <c r="F17" t="inlineStr">
         <is>
           <t>Yes</t>
@@ -1098,10 +1146,15 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
         <is>
           <t>Restricts gender-affirming care for incarcerated people.</t>
         </is>
@@ -1118,17 +1171,15 @@
           <t>GA</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr"/>
-      <c r="D18" t="inlineStr">
+      <c r="C18" t="n">
+        <v>2025</v>
+      </c>
+      <c r="D18" t="inlineStr"/>
+      <c r="E18" t="inlineStr">
         <is>
           <t>https://legiscan.com/GA/bill/SB36/2025</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
       <c r="F18" t="inlineStr">
         <is>
           <t>Yes</t>
@@ -1136,10 +1187,15 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
         <is>
           <t>Allows religious exemptions to deny housing, healthcare, equal pay.</t>
         </is>
@@ -1156,17 +1212,15 @@
           <t>ID</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr"/>
-      <c r="D19" t="inlineStr">
+      <c r="C19" t="n">
+        <v>2025</v>
+      </c>
+      <c r="D19" t="inlineStr"/>
+      <c r="E19" t="inlineStr">
         <is>
           <t>https://legislature.idaho.gov/wp-content/uploads/sessioninfo/2025/legislation/H0264.pdf</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
       <c r="F19" t="inlineStr">
         <is>
           <t>Yes</t>
@@ -1174,10 +1228,15 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
         <is>
           <t>Bans trans people from facilities in prisons, colleges, shelters.</t>
         </is>
@@ -1194,17 +1253,15 @@
           <t>ID</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr"/>
-      <c r="D20" t="inlineStr">
+      <c r="C20" t="n">
+        <v>2025</v>
+      </c>
+      <c r="D20" t="inlineStr"/>
+      <c r="E20" t="inlineStr">
         <is>
           <t>https://legislature.idaho.gov/wp-content/uploads/sessioninfo/2025/legislation/H0352.pdf</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
       <c r="F20" t="inlineStr">
         <is>
           <t>Yes</t>
@@ -1212,10 +1269,15 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
         <is>
           <t>Bans instruction on LGBTQ+ identities K-12.</t>
         </is>
@@ -1232,17 +1294,15 @@
           <t>ID</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr"/>
-      <c r="D21" t="inlineStr">
+      <c r="C21" t="n">
+        <v>2025</v>
+      </c>
+      <c r="D21" t="inlineStr"/>
+      <c r="E21" t="inlineStr">
         <is>
           <t>https://legislature.idaho.gov/wp-content/uploads/sessioninfo/2025/legislation/S1198.pdf</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
       <c r="F21" t="inlineStr">
         <is>
           <t>Yes</t>
@@ -1250,10 +1310,15 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
         <is>
           <t>Prohibits DEI initiatives at universities.</t>
         </is>
@@ -1270,17 +1335,15 @@
           <t>ID</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr"/>
-      <c r="D22" t="inlineStr">
+      <c r="C22" t="n">
+        <v>2025</v>
+      </c>
+      <c r="D22" t="inlineStr"/>
+      <c r="E22" t="inlineStr">
         <is>
           <t>https://legislature.idaho.gov/wp-content/uploads/sessioninfo/2025/legislation/H0059.pdf</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
       <c r="F22" t="inlineStr">
         <is>
           <t>Yes</t>
@@ -1288,10 +1351,15 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
         <is>
           <t>Religious exemptions for healthcare providers.</t>
         </is>
@@ -1308,17 +1376,15 @@
           <t>ID</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr"/>
-      <c r="D23" t="inlineStr">
+      <c r="C23" t="n">
+        <v>2025</v>
+      </c>
+      <c r="D23" t="inlineStr"/>
+      <c r="E23" t="inlineStr">
         <is>
           <t>https://legislature.idaho.gov/wp-content/uploads/sessioninfo/2025/legislation/S1027.pdf</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
       <c r="F23" t="inlineStr">
         <is>
           <t>Yes</t>
@@ -1326,10 +1392,15 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
         <is>
           <t>Protects employers refusing to facilitate gender transition treatments.</t>
         </is>
@@ -1346,17 +1417,15 @@
           <t>ID</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr"/>
-      <c r="D24" t="inlineStr">
+      <c r="C24" t="n">
+        <v>2025</v>
+      </c>
+      <c r="D24" t="inlineStr"/>
+      <c r="E24" t="inlineStr">
         <is>
           <t>https://legislature.idaho.gov/wp-content/uploads/sessioninfo/2025/legislation/H0041.pdf</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
       <c r="F24" t="inlineStr">
         <is>
           <t>Yes</t>
@@ -1364,10 +1433,15 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
         <is>
           <t>Bans LGBTQ+ flags at public buildings.</t>
         </is>
@@ -1384,17 +1458,15 @@
           <t>ID</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr"/>
-      <c r="D25" t="inlineStr">
+      <c r="C25" t="n">
+        <v>2025</v>
+      </c>
+      <c r="D25" t="inlineStr"/>
+      <c r="E25" t="inlineStr">
         <is>
           <t>https://legislature.idaho.gov/wp-content/uploads/sessioninfo/2025/legislation/H0239.pdf</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
       <c r="F25" t="inlineStr">
         <is>
           <t>Yes</t>
@@ -1402,10 +1474,15 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
         <is>
           <t>Requires parent permission to study human sexuality.</t>
         </is>
@@ -1422,17 +1499,15 @@
           <t>IN</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr"/>
-      <c r="D26" t="inlineStr">
+      <c r="C26" t="n">
+        <v>2025</v>
+      </c>
+      <c r="D26" t="inlineStr"/>
+      <c r="E26" t="inlineStr">
         <is>
           <t>https://iga.in.gov/legislative/2025/bills/house/1041/details</t>
         </is>
       </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
       <c r="F26" t="inlineStr">
         <is>
           <t>Yes</t>
@@ -1440,10 +1515,15 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
         <is>
           <t>Bans trans women from women's sports.</t>
         </is>
@@ -1460,17 +1540,15 @@
           <t>IN</t>
         </is>
       </c>
-      <c r="C27" t="inlineStr"/>
-      <c r="D27" t="inlineStr">
+      <c r="C27" t="n">
+        <v>2025</v>
+      </c>
+      <c r="D27" t="inlineStr"/>
+      <c r="E27" t="inlineStr">
         <is>
           <t>https://legiscan.com/IN/text/HB1412/2025</t>
         </is>
       </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
       <c r="F27" t="inlineStr">
         <is>
           <t>Yes</t>
@@ -1478,10 +1556,15 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
         <is>
           <t>Classifies parents denying youth gender-affirming care as non-abusive.</t>
         </is>
@@ -1498,17 +1581,15 @@
           <t>IA</t>
         </is>
       </c>
-      <c r="C28" t="inlineStr"/>
-      <c r="D28" t="inlineStr">
+      <c r="C28" t="n">
+        <v>2025</v>
+      </c>
+      <c r="D28" t="inlineStr"/>
+      <c r="E28" t="inlineStr">
         <is>
           <t>https://www.legis.iowa.gov/legislation/BillBook?ba=SF418&amp;ga=91</t>
         </is>
       </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
       <c r="F28" t="inlineStr">
         <is>
           <t>Yes</t>
@@ -1516,10 +1597,15 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
         <is>
           <t>Removes gender identity from antidiscrimination law, bans birth certificate changes, bans instruction through 6th grade.</t>
         </is>
@@ -1536,17 +1622,15 @@
           <t>IA</t>
         </is>
       </c>
-      <c r="C29" t="inlineStr"/>
-      <c r="D29" t="inlineStr">
+      <c r="C29" t="n">
+        <v>2025</v>
+      </c>
+      <c r="D29" t="inlineStr"/>
+      <c r="E29" t="inlineStr">
         <is>
           <t>https://www.legis.iowa.gov/legislation/BillBook?ga=91&amp;ba=hf1049</t>
         </is>
       </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
       <c r="F29" t="inlineStr">
         <is>
           <t>Yes</t>
@@ -1554,10 +1638,15 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
         <is>
           <t>Bans Medicaid from covering gender-affirming care for adults.</t>
         </is>
@@ -1574,17 +1663,15 @@
           <t>IA</t>
         </is>
       </c>
-      <c r="C30" t="inlineStr"/>
-      <c r="D30" t="inlineStr">
+      <c r="C30" t="n">
+        <v>2025</v>
+      </c>
+      <c r="D30" t="inlineStr"/>
+      <c r="E30" t="inlineStr">
         <is>
           <t>https://legiscan.com/IA/text/HF856/id/3158480</t>
         </is>
       </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
       <c r="F30" t="inlineStr">
         <is>
           <t>Yes</t>
@@ -1592,10 +1679,15 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
         <is>
           <t>Bans DEI programs at public institutions.</t>
         </is>
@@ -1612,17 +1704,15 @@
           <t>KS</t>
         </is>
       </c>
-      <c r="C31" t="inlineStr"/>
-      <c r="D31" t="inlineStr">
+      <c r="C31" t="n">
+        <v>2025</v>
+      </c>
+      <c r="D31" t="inlineStr"/>
+      <c r="E31" t="inlineStr">
         <is>
           <t>https://www.kslegislature.gov/li/b2025_26/measures/sb63/</t>
         </is>
       </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
       <c r="F31" t="inlineStr">
         <is>
           <t>Yes</t>
@@ -1630,10 +1720,15 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
         <is>
           <t>Bans gender-affirming care for minors.</t>
         </is>
@@ -1650,17 +1745,15 @@
           <t>KS</t>
         </is>
       </c>
-      <c r="C32" t="inlineStr"/>
-      <c r="D32" t="inlineStr">
+      <c r="C32" t="n">
+        <v>2025</v>
+      </c>
+      <c r="D32" t="inlineStr"/>
+      <c r="E32" t="inlineStr">
         <is>
           <t>https://www.kslegislature.gov/li/b2025_26/measures/hb2311/</t>
         </is>
       </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
       <c r="F32" t="inlineStr">
         <is>
           <t>Yes</t>
@@ -1668,10 +1761,15 @@
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
         <is>
           <t>Allows anti-LGBTQ+ parents to foster LGBTQ+ children.</t>
         </is>
@@ -1688,17 +1786,15 @@
           <t>KY</t>
         </is>
       </c>
-      <c r="C33" t="inlineStr"/>
-      <c r="D33" t="inlineStr">
+      <c r="C33" t="n">
+        <v>2025</v>
+      </c>
+      <c r="D33" t="inlineStr"/>
+      <c r="E33" t="inlineStr">
         <is>
           <t>https://apps.legislature.ky.gov/record/25rs/hb501.html</t>
         </is>
       </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
       <c r="F33" t="inlineStr">
         <is>
           <t>Yes</t>
@@ -1706,10 +1802,15 @@
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
         <is>
           <t>Bans gender-affirming care for youth.</t>
         </is>
@@ -1726,17 +1827,15 @@
           <t>KY</t>
         </is>
       </c>
-      <c r="C34" t="inlineStr"/>
-      <c r="D34" t="inlineStr">
+      <c r="C34" t="n">
+        <v>2025</v>
+      </c>
+      <c r="D34" t="inlineStr"/>
+      <c r="E34" t="inlineStr">
         <is>
           <t>https://apps.legislature.ky.gov/record/25rs/hb4.html</t>
         </is>
       </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
       <c r="F34" t="inlineStr">
         <is>
           <t>Yes</t>
@@ -1744,10 +1843,15 @@
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
         <is>
           <t>Bans DEI initiatives in public schools.</t>
         </is>
@@ -1764,17 +1868,15 @@
           <t>KY</t>
         </is>
       </c>
-      <c r="C35" t="inlineStr"/>
-      <c r="D35" t="inlineStr">
+      <c r="C35" t="n">
+        <v>2025</v>
+      </c>
+      <c r="D35" t="inlineStr"/>
+      <c r="E35" t="inlineStr">
         <is>
           <t>https://apps.legislature.ky.gov/record/25rs/sb2.html</t>
         </is>
       </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
       <c r="F35" t="inlineStr">
         <is>
           <t>Yes</t>
@@ -1782,10 +1884,15 @@
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
         <is>
           <t>Restricts gender-affirming care for incarcerated people.</t>
         </is>
@@ -1802,17 +1909,15 @@
           <t>KY</t>
         </is>
       </c>
-      <c r="C36" t="inlineStr"/>
-      <c r="D36" t="inlineStr">
+      <c r="C36" t="n">
+        <v>2025</v>
+      </c>
+      <c r="D36" t="inlineStr"/>
+      <c r="E36" t="inlineStr">
         <is>
           <t>https://apps.legislature.ky.gov/record/25rs/hb495.html</t>
         </is>
       </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
       <c r="F36" t="inlineStr">
         <is>
           <t>Yes</t>
@@ -1820,10 +1925,15 @@
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
         <is>
           <t>Bans Medicaid from covering gender-affirming care.</t>
         </is>
@@ -1840,17 +1950,15 @@
           <t>LA</t>
         </is>
       </c>
-      <c r="C37" t="inlineStr"/>
-      <c r="D37" t="inlineStr">
+      <c r="C37" t="n">
+        <v>2025</v>
+      </c>
+      <c r="D37" t="inlineStr"/>
+      <c r="E37" t="inlineStr">
         <is>
           <t>https://www.legis.la.gov/legis/ViewDocument.aspx?d=1425965</t>
         </is>
       </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
       <c r="F37" t="inlineStr">
         <is>
           <t>Yes</t>
@@ -1858,10 +1966,15 @@
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
         <is>
           <t>Creates religious exemptions for discrimination.</t>
         </is>
@@ -1878,17 +1991,15 @@
           <t>MS</t>
         </is>
       </c>
-      <c r="C38" t="inlineStr"/>
-      <c r="D38" t="inlineStr">
+      <c r="C38" t="n">
+        <v>2025</v>
+      </c>
+      <c r="D38" t="inlineStr"/>
+      <c r="E38" t="inlineStr">
         <is>
           <t>https://billstatus.ls.state.ms.us/2025/pdf/history/HB/HB0188.xml</t>
         </is>
       </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
       <c r="F38" t="inlineStr">
         <is>
           <t>Yes</t>
@@ -1896,10 +2007,15 @@
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
         <is>
           <t>Bans trans women from women's prisons.</t>
         </is>
@@ -1916,17 +2032,15 @@
           <t>MT</t>
         </is>
       </c>
-      <c r="C39" t="inlineStr"/>
-      <c r="D39" t="inlineStr">
+      <c r="C39" t="n">
+        <v>2025</v>
+      </c>
+      <c r="D39" t="inlineStr"/>
+      <c r="E39" t="inlineStr">
         <is>
           <t>https://bills.legmt.gov/#/laws/bill/2/LC2129</t>
         </is>
       </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
       <c r="F39" t="inlineStr">
         <is>
           <t>Yes</t>
@@ -1934,10 +2048,15 @@
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
         <is>
           <t>Bans trans people from single-sex spaces based on sex at birth.</t>
         </is>
@@ -1954,17 +2073,15 @@
           <t>MT</t>
         </is>
       </c>
-      <c r="C40" t="inlineStr"/>
-      <c r="D40" t="inlineStr">
+      <c r="C40" t="n">
+        <v>2025</v>
+      </c>
+      <c r="D40" t="inlineStr"/>
+      <c r="E40" t="inlineStr">
         <is>
           <t>https://bills.legmt.gov/#/laws/bill/2/LC2053</t>
         </is>
       </c>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
       <c r="F40" t="inlineStr">
         <is>
           <t>Yes</t>
@@ -1972,10 +2089,15 @@
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
         <is>
           <t>Classifies trans people using aligned facilities as discrimination.</t>
         </is>
@@ -1992,17 +2114,15 @@
           <t>MT</t>
         </is>
       </c>
-      <c r="C41" t="inlineStr"/>
-      <c r="D41" t="inlineStr">
+      <c r="C41" t="n">
+        <v>2025</v>
+      </c>
+      <c r="D41" t="inlineStr"/>
+      <c r="E41" t="inlineStr">
         <is>
           <t>https://bills.legmt.gov/#/laws/bill/2/LC0898</t>
         </is>
       </c>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
       <c r="F41" t="inlineStr">
         <is>
           <t>Yes</t>
@@ -2010,10 +2130,15 @@
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
         <is>
           <t>Requires Medicaid to cover detransition treatment.</t>
         </is>
@@ -2030,17 +2155,15 @@
           <t>MT</t>
         </is>
       </c>
-      <c r="C42" t="inlineStr"/>
-      <c r="D42" t="inlineStr">
+      <c r="C42" t="n">
+        <v>2025</v>
+      </c>
+      <c r="D42" t="inlineStr"/>
+      <c r="E42" t="inlineStr">
         <is>
           <t>https://bills.legmt.gov/#/laws/bill/2/LC3433</t>
         </is>
       </c>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
       <c r="F42" t="inlineStr">
         <is>
           <t>Yes</t>
@@ -2048,10 +2171,15 @@
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
         <is>
           <t>Classifies parents denying youth gender-affirming care as non-abusive.</t>
         </is>
@@ -2068,17 +2196,15 @@
           <t>MT</t>
         </is>
       </c>
-      <c r="C43" t="inlineStr"/>
-      <c r="D43" t="inlineStr">
+      <c r="C43" t="n">
+        <v>2025</v>
+      </c>
+      <c r="D43" t="inlineStr"/>
+      <c r="E43" t="inlineStr">
         <is>
           <t>https://bills.legmt.gov/#/laws/bill/2/LC1818</t>
         </is>
       </c>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
       <c r="F43" t="inlineStr">
         <is>
           <t>Yes</t>
@@ -2086,10 +2212,15 @@
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
         <is>
           <t>Allows those who regret transitioning to sue doctors.</t>
         </is>
@@ -2106,17 +2237,15 @@
           <t>MT</t>
         </is>
       </c>
-      <c r="C44" t="inlineStr"/>
-      <c r="D44" t="inlineStr">
+      <c r="C44" t="n">
+        <v>2025</v>
+      </c>
+      <c r="D44" t="inlineStr"/>
+      <c r="E44" t="inlineStr">
         <is>
           <t>https://bills.legmt.gov/#/laws/bill/2/LC4289</t>
         </is>
       </c>
-      <c r="E44" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
       <c r="F44" t="inlineStr">
         <is>
           <t>Yes</t>
@@ -2124,10 +2253,15 @@
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr">
         <is>
           <t>Bans LGBTQ+ flags at government buildings.</t>
         </is>
@@ -2144,21 +2278,19 @@
           <t>NC</t>
         </is>
       </c>
-      <c r="C45" t="inlineStr">
+      <c r="C45" t="n">
+        <v>2025</v>
+      </c>
+      <c r="D45" t="inlineStr">
         <is>
           <t>2025-07-01</t>
         </is>
       </c>
-      <c r="D45" t="inlineStr">
+      <c r="E45" t="inlineStr">
         <is>
           <t>https://legiscan.com/NC/text/H805/2025</t>
         </is>
       </c>
-      <c r="E45" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
       <c r="F45" t="inlineStr">
         <is>
           <t>Yes</t>
@@ -2166,10 +2298,15 @@
       </c>
       <c r="G45" t="inlineStr">
         <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
           <t>Vetoed (Override)</t>
         </is>
       </c>
-      <c r="H45" t="inlineStr">
+      <c r="I45" t="inlineStr">
         <is>
           <t>Initially vetoed by Gov. Stein July 2025; veto overridden. Defines sex, restricts birth certificates, bans facilities access, limits healthcare.</t>
         </is>
@@ -2186,17 +2323,15 @@
           <t>NC</t>
         </is>
       </c>
-      <c r="C46" t="inlineStr"/>
-      <c r="D46" t="inlineStr">
+      <c r="C46" t="n">
+        <v>2025</v>
+      </c>
+      <c r="D46" t="inlineStr"/>
+      <c r="E46" t="inlineStr">
         <is>
           <t>https://dashboard.ncleg.gov/api/Services/BillSummary/2025/S442</t>
         </is>
       </c>
-      <c r="E46" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
       <c r="F46" t="inlineStr">
         <is>
           <t>Yes</t>
@@ -2204,10 +2339,15 @@
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr">
         <is>
           <t>Allows anti-LGBTQ+ parents to foster or get custody of LGBTQ+ children.</t>
         </is>
@@ -2224,32 +2364,35 @@
           <t>NC</t>
         </is>
       </c>
-      <c r="C47" t="inlineStr">
+      <c r="C47" t="n">
+        <v>2025</v>
+      </c>
+      <c r="D47" t="inlineStr">
         <is>
           <t>2025-07-01</t>
         </is>
       </c>
-      <c r="D47" t="inlineStr">
+      <c r="E47" t="inlineStr">
         <is>
           <t>https://www.ncleg.gov/BillLookUp/2025/S558</t>
         </is>
       </c>
-      <c r="E47" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
           <t>Vetoed</t>
         </is>
       </c>
-      <c r="H47" t="inlineStr">
+      <c r="I47" t="inlineStr">
         <is>
           <t>Vetoed by Gov. Stein July 2025. Would have eliminated DEI in public higher ed.</t>
         </is>
@@ -2266,32 +2409,35 @@
           <t>NC</t>
         </is>
       </c>
-      <c r="C48" t="inlineStr">
+      <c r="C48" t="n">
+        <v>2025</v>
+      </c>
+      <c r="D48" t="inlineStr">
         <is>
           <t>2025-07-01</t>
         </is>
       </c>
-      <c r="D48" t="inlineStr">
+      <c r="E48" t="inlineStr">
         <is>
           <t>https://www.ncleg.gov/BillLookUp/2025/S227</t>
         </is>
       </c>
-      <c r="E48" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
           <t>Vetoed</t>
         </is>
       </c>
-      <c r="H48" t="inlineStr">
+      <c r="I48" t="inlineStr">
         <is>
           <t>Vetoed by Gov. Stein July 2025. Would have banned DEI in K-12 education.</t>
         </is>
@@ -2308,32 +2454,35 @@
           <t>NC</t>
         </is>
       </c>
-      <c r="C49" t="inlineStr">
+      <c r="C49" t="n">
+        <v>2025</v>
+      </c>
+      <c r="D49" t="inlineStr">
         <is>
           <t>2025-07-01</t>
         </is>
       </c>
-      <c r="D49" t="inlineStr">
+      <c r="E49" t="inlineStr">
         <is>
           <t>https://www.ncleg.gov/BillLookUp/2025/H171</t>
         </is>
       </c>
-      <c r="E49" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
           <t>Vetoed</t>
         </is>
       </c>
-      <c r="H49" t="inlineStr">
+      <c r="I49" t="inlineStr">
         <is>
           <t>Vetoed by Gov. Stein July 2025. Would have banned DEI in state/local government.</t>
         </is>
@@ -2350,17 +2499,15 @@
           <t>ND</t>
         </is>
       </c>
-      <c r="C50" t="inlineStr"/>
-      <c r="D50" t="inlineStr">
+      <c r="C50" t="n">
+        <v>2025</v>
+      </c>
+      <c r="D50" t="inlineStr"/>
+      <c r="E50" t="inlineStr">
         <is>
           <t>https://ndlegis.gov/assembly/69-2025/regular/bill-overview/bo1144.html</t>
         </is>
       </c>
-      <c r="E50" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
       <c r="F50" t="inlineStr">
         <is>
           <t>Yes</t>
@@ -2368,10 +2515,15 @@
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr">
         <is>
           <t>Bans trans students from facilities aligned with gender identity.</t>
         </is>
@@ -2388,17 +2540,15 @@
           <t>NH</t>
         </is>
       </c>
-      <c r="C51" t="inlineStr"/>
-      <c r="D51" t="inlineStr">
+      <c r="C51" t="n">
+        <v>2025</v>
+      </c>
+      <c r="D51" t="inlineStr"/>
+      <c r="E51" t="inlineStr">
         <is>
           <t>https://legiscan.com/NH/text/HB377/id/3043784</t>
         </is>
       </c>
-      <c r="E51" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
       <c r="F51" t="inlineStr">
         <is>
           <t>Yes</t>
@@ -2406,10 +2556,15 @@
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr">
         <is>
           <t>Bans puberty blockers and HRT for trans youth only.</t>
         </is>
@@ -2426,17 +2581,15 @@
           <t>NH</t>
         </is>
       </c>
-      <c r="C52" t="inlineStr"/>
-      <c r="D52" t="inlineStr">
+      <c r="C52" t="n">
+        <v>2025</v>
+      </c>
+      <c r="D52" t="inlineStr"/>
+      <c r="E52" t="inlineStr">
         <is>
           <t>https://legiscan.com/NH/text/HB712/id/3073761</t>
         </is>
       </c>
-      <c r="E52" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
       <c r="F52" t="inlineStr">
         <is>
           <t>Yes</t>
@@ -2444,10 +2597,15 @@
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr">
         <is>
           <t>Bans breast surgeries for minors.</t>
         </is>
@@ -2464,28 +2622,31 @@
           <t>NH</t>
         </is>
       </c>
-      <c r="C53" t="inlineStr"/>
-      <c r="D53" t="inlineStr">
+      <c r="C53" t="n">
+        <v>2025</v>
+      </c>
+      <c r="D53" t="inlineStr"/>
+      <c r="E53" t="inlineStr">
         <is>
           <t>https://legiscan.com/NH/bill/HB148/2025</t>
         </is>
       </c>
-      <c r="E53" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
           <t>Defeated</t>
         </is>
       </c>
-      <c r="H53" t="inlineStr">
+      <c r="I53" t="inlineStr">
         <is>
           <t>Failed. Would have permitted classification based on biological sex.</t>
         </is>
@@ -2502,17 +2663,15 @@
           <t>NV</t>
         </is>
       </c>
-      <c r="C54" t="inlineStr"/>
-      <c r="D54" t="inlineStr">
+      <c r="C54" t="n">
+        <v>2025</v>
+      </c>
+      <c r="D54" t="inlineStr"/>
+      <c r="E54" t="inlineStr">
         <is>
           <t>https://www.leg.state.nv.us/App/NELIS/REL/83rd2025/Bill/11854/Text</t>
         </is>
       </c>
-      <c r="E54" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
       <c r="F54" t="inlineStr">
         <is>
           <t>Yes</t>
@@ -2520,10 +2679,15 @@
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I54" t="inlineStr">
         <is>
           <t>Requires extra training for Medicaid officials treating trans people.</t>
         </is>
@@ -2540,17 +2704,15 @@
           <t>OK</t>
         </is>
       </c>
-      <c r="C55" t="inlineStr"/>
-      <c r="D55" t="inlineStr">
+      <c r="C55" t="n">
+        <v>2025</v>
+      </c>
+      <c r="D55" t="inlineStr"/>
+      <c r="E55" t="inlineStr">
         <is>
           <t>https://www.oklegislature.gov/cf_pdf/2025-26%20ENR/SB/SB658%20ENR.PDF</t>
         </is>
       </c>
-      <c r="E55" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
       <c r="F55" t="inlineStr">
         <is>
           <t>Yes</t>
@@ -2558,10 +2720,15 @@
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr">
         <is>
           <t>Allows anti-LGBTQ+ parents to foster LGBTQ+ children.</t>
         </is>
@@ -2578,17 +2745,15 @@
           <t>OK</t>
         </is>
       </c>
-      <c r="C56" t="inlineStr"/>
-      <c r="D56" t="inlineStr">
+      <c r="C56" t="n">
+        <v>2025</v>
+      </c>
+      <c r="D56" t="inlineStr"/>
+      <c r="E56" t="inlineStr">
         <is>
           <t>https://www.oklegislature.gov/cf_pdf/2025-26%20ENR/SB/SB418%20ENR.PDF</t>
         </is>
       </c>
-      <c r="E56" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
       <c r="F56" t="inlineStr">
         <is>
           <t>Yes</t>
@@ -2596,10 +2761,15 @@
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr">
         <is>
           <t>Bans incarcerated trans people from facilities aligned with identity.</t>
         </is>
@@ -2616,17 +2786,15 @@
           <t>OK</t>
         </is>
       </c>
-      <c r="C57" t="inlineStr"/>
-      <c r="D57" t="inlineStr">
+      <c r="C57" t="n">
+        <v>2025</v>
+      </c>
+      <c r="D57" t="inlineStr"/>
+      <c r="E57" t="inlineStr">
         <is>
           <t>https://www.oklegislature.gov/cf_pdf/2025-26%20ENR/hB/HB1688%20ENR.PDF</t>
         </is>
       </c>
-      <c r="E57" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
       <c r="F57" t="inlineStr">
         <is>
           <t>Yes</t>
@@ -2634,10 +2802,15 @@
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr">
         <is>
           <t>Requires biological sex on birth certificates; bans nonbinary designations.</t>
         </is>
@@ -2654,17 +2827,15 @@
           <t>SD</t>
         </is>
       </c>
-      <c r="C58" t="inlineStr"/>
-      <c r="D58" t="inlineStr">
+      <c r="C58" t="n">
+        <v>2025</v>
+      </c>
+      <c r="D58" t="inlineStr"/>
+      <c r="E58" t="inlineStr">
         <is>
           <t>https://mylrc.sdlegislature.gov/api/Documents/284305.pdf</t>
         </is>
       </c>
-      <c r="E58" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
       <c r="F58" t="inlineStr">
         <is>
           <t>Yes</t>
@@ -2672,10 +2843,15 @@
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr">
         <is>
           <t>Bans trans people from single-sex spaces based on sex at birth.</t>
         </is>
@@ -2692,17 +2868,15 @@
           <t>TN</t>
         </is>
       </c>
-      <c r="C59" t="inlineStr"/>
-      <c r="D59" t="inlineStr">
+      <c r="C59" t="n">
+        <v>2025</v>
+      </c>
+      <c r="D59" t="inlineStr"/>
+      <c r="E59" t="inlineStr">
         <is>
           <t>https://wapp.capitol.tn.gov/apps/BillInfo/Default.aspx?BillNumber=SB0937&amp;ga=114</t>
         </is>
       </c>
-      <c r="E59" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
       <c r="F59" t="inlineStr">
         <is>
           <t>Yes</t>
@@ -2710,10 +2884,15 @@
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I59" t="inlineStr">
         <is>
           <t>Allows teachers to misgender trans students.</t>
         </is>
@@ -2730,17 +2909,15 @@
           <t>TN</t>
         </is>
       </c>
-      <c r="C60" t="inlineStr"/>
-      <c r="D60" t="inlineStr">
+      <c r="C60" t="n">
+        <v>2025</v>
+      </c>
+      <c r="D60" t="inlineStr"/>
+      <c r="E60" t="inlineStr">
         <is>
           <t>https://wapp.capitol.tn.gov/apps/BillInfo/Default.aspx?BillNumber=SB0955&amp;ga=114</t>
         </is>
       </c>
-      <c r="E60" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
       <c r="F60" t="inlineStr">
         <is>
           <t>Yes</t>
@@ -2748,10 +2925,15 @@
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I60" t="inlineStr">
         <is>
           <t>Allows healthcare providers to refuse treatments based on religion.</t>
         </is>
@@ -2768,17 +2950,15 @@
           <t>TN</t>
         </is>
       </c>
-      <c r="C61" t="inlineStr"/>
-      <c r="D61" t="inlineStr">
+      <c r="C61" t="n">
+        <v>2025</v>
+      </c>
+      <c r="D61" t="inlineStr"/>
+      <c r="E61" t="inlineStr">
         <is>
           <t>https://wapp.capitol.tn.gov/apps/BillInfo/Default.aspx?BillNumber=HB0064&amp;ga=114</t>
         </is>
       </c>
-      <c r="E61" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
       <c r="F61" t="inlineStr">
         <is>
           <t>Yes</t>
@@ -2786,10 +2966,15 @@
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I61" t="inlineStr">
         <is>
           <t>Bans trans students from facilities aligned with gender identity.</t>
         </is>
@@ -2806,21 +2991,19 @@
           <t>TX</t>
         </is>
       </c>
-      <c r="C62" t="inlineStr">
+      <c r="C62" t="n">
+        <v>2025</v>
+      </c>
+      <c r="D62" t="inlineStr">
         <is>
           <t>2025-12-04</t>
         </is>
       </c>
-      <c r="D62" t="inlineStr">
+      <c r="E62" t="inlineStr">
         <is>
           <t>https://capitol.texas.gov/tlodocs/891/billtext/pdf/SB00008F.pdf</t>
         </is>
       </c>
-      <c r="E62" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
       <c r="F62" t="inlineStr">
         <is>
           <t>Yes</t>
@@ -2828,10 +3011,15 @@
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I62" t="inlineStr">
         <is>
           <t>Bans trans people from facilities in state agencies, higher ed, political subdivisions. Effective Dec 4, 2025.</t>
         </is>
@@ -2848,17 +3036,15 @@
           <t>TX</t>
         </is>
       </c>
-      <c r="C63" t="inlineStr"/>
-      <c r="D63" t="inlineStr">
+      <c r="C63" t="n">
+        <v>2025</v>
+      </c>
+      <c r="D63" t="inlineStr"/>
+      <c r="E63" t="inlineStr">
         <is>
           <t>https://capitol.texas.gov/tlodocs/89R/billtext/pdf/SB00012F.pdf</t>
         </is>
       </c>
-      <c r="E63" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
       <c r="F63" t="inlineStr">
         <is>
           <t>Yes</t>
@@ -2866,10 +3052,15 @@
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I63" t="inlineStr">
         <is>
           <t>Requires parental permission for students to use different name/pronouns.</t>
         </is>
@@ -2886,17 +3077,15 @@
           <t>TX</t>
         </is>
       </c>
-      <c r="C64" t="inlineStr"/>
-      <c r="D64" t="inlineStr">
+      <c r="C64" t="n">
+        <v>2025</v>
+      </c>
+      <c r="D64" t="inlineStr"/>
+      <c r="E64" t="inlineStr">
         <is>
           <t>https://capitol.texas.gov/tlodocs/89R/billtext/pdf/HB00229F.pdf</t>
         </is>
       </c>
-      <c r="E64" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
       <c r="F64" t="inlineStr">
         <is>
           <t>Yes</t>
@@ -2904,10 +3093,15 @@
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I64" t="inlineStr">
         <is>
           <t>Defines sex as unchanging and exclusively male or female.</t>
         </is>
@@ -2924,17 +3118,15 @@
           <t>TX</t>
         </is>
       </c>
-      <c r="C65" t="inlineStr"/>
-      <c r="D65" t="inlineStr">
+      <c r="C65" t="n">
+        <v>2025</v>
+      </c>
+      <c r="D65" t="inlineStr"/>
+      <c r="E65" t="inlineStr">
         <is>
           <t>https://capitol.texas.gov/tlodocs/89R/billtext/pdf/HB00018F.pdf</t>
         </is>
       </c>
-      <c r="E65" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
       <c r="F65" t="inlineStr">
         <is>
           <t>Yes</t>
@@ -2942,10 +3134,15 @@
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I65" t="inlineStr">
         <is>
           <t>Bans mental health practitioners from affirming identities of trans minors.</t>
         </is>
@@ -2962,17 +3159,15 @@
           <t>TX</t>
         </is>
       </c>
-      <c r="C66" t="inlineStr"/>
-      <c r="D66" t="inlineStr">
+      <c r="C66" t="n">
+        <v>2025</v>
+      </c>
+      <c r="D66" t="inlineStr"/>
+      <c r="E66" t="inlineStr">
         <is>
           <t>https://capitol.texas.gov/tlodocs/89R/billtext/pdf/SB01188F.pdf</t>
         </is>
       </c>
-      <c r="E66" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
       <c r="F66" t="inlineStr">
         <is>
           <t>Yes</t>
@@ -2980,10 +3175,15 @@
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I66" t="inlineStr">
         <is>
           <t>Requires government access to medical records containing biological sex info.</t>
         </is>
@@ -3000,28 +3200,31 @@
           <t>TX</t>
         </is>
       </c>
-      <c r="C67" t="inlineStr"/>
-      <c r="D67" t="inlineStr">
+      <c r="C67" t="n">
+        <v>2025</v>
+      </c>
+      <c r="D67" t="inlineStr"/>
+      <c r="E67" t="inlineStr">
         <is>
           <t>https://capitol.texas.gov/BillLookup/History.aspx?LegSess=89R&amp;Bill=HB239</t>
         </is>
       </c>
-      <c r="E67" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
           <t>Defeated</t>
         </is>
       </c>
-      <c r="H67" t="inlineStr">
+      <c r="I67" t="inlineStr">
         <is>
           <t>Failed. Would have banned trans students from school bathrooms.</t>
         </is>
@@ -3038,17 +3241,15 @@
           <t>UT</t>
         </is>
       </c>
-      <c r="C68" t="inlineStr"/>
-      <c r="D68" t="inlineStr">
+      <c r="C68" t="n">
+        <v>2025</v>
+      </c>
+      <c r="D68" t="inlineStr"/>
+      <c r="E68" t="inlineStr">
         <is>
           <t>https://le.utah.gov/~2025/bills/static/HB0269.html</t>
         </is>
       </c>
-      <c r="E68" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
       <c r="F68" t="inlineStr">
         <is>
           <t>Yes</t>
@@ -3056,10 +3257,15 @@
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I68" t="inlineStr">
         <is>
           <t>Bans trans people from public facilities based on sex at birth, including schools.</t>
         </is>
@@ -3076,17 +3282,15 @@
           <t>UT</t>
         </is>
       </c>
-      <c r="C69" t="inlineStr"/>
-      <c r="D69" t="inlineStr">
+      <c r="C69" t="n">
+        <v>2025</v>
+      </c>
+      <c r="D69" t="inlineStr"/>
+      <c r="E69" t="inlineStr">
         <is>
           <t>https://le.utah.gov/~2025/bills/static/HB0283.html</t>
         </is>
       </c>
-      <c r="E69" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
       <c r="F69" t="inlineStr">
         <is>
           <t>Yes</t>
@@ -3094,10 +3298,15 @@
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I69" t="inlineStr">
         <is>
           <t>Allows anti-LGBTQ+ parents to foster LGBTQ+ children.</t>
         </is>
@@ -3114,17 +3323,15 @@
           <t>UT</t>
         </is>
       </c>
-      <c r="C70" t="inlineStr"/>
-      <c r="D70" t="inlineStr">
+      <c r="C70" t="n">
+        <v>2025</v>
+      </c>
+      <c r="D70" t="inlineStr"/>
+      <c r="E70" t="inlineStr">
         <is>
           <t>https://le.utah.gov/~2025/bills/static/HB0252.html</t>
         </is>
       </c>
-      <c r="E70" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
       <c r="F70" t="inlineStr">
         <is>
           <t>Yes</t>
@@ -3132,10 +3339,15 @@
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I70" t="inlineStr">
         <is>
           <t>Restricts gender-affirming care for incarcerated people.</t>
         </is>
@@ -3152,17 +3364,15 @@
           <t>UT</t>
         </is>
       </c>
-      <c r="C71" t="inlineStr"/>
-      <c r="D71" t="inlineStr">
+      <c r="C71" t="n">
+        <v>2025</v>
+      </c>
+      <c r="D71" t="inlineStr"/>
+      <c r="E71" t="inlineStr">
         <is>
           <t>https://le.utah.gov/~2025/bills/static/SB0074.html</t>
         </is>
       </c>
-      <c r="E71" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
       <c r="F71" t="inlineStr">
         <is>
           <t>Yes</t>
@@ -3170,10 +3380,15 @@
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I71" t="inlineStr">
         <is>
           <t>Creates strict requirements for legally changing one's sex.</t>
         </is>
@@ -3190,17 +3405,15 @@
           <t>UT</t>
         </is>
       </c>
-      <c r="C72" t="inlineStr"/>
-      <c r="D72" t="inlineStr">
+      <c r="C72" t="n">
+        <v>2025</v>
+      </c>
+      <c r="D72" t="inlineStr"/>
+      <c r="E72" t="inlineStr">
         <is>
           <t>https://le.utah.gov/~2025/bills/static/HB0077.html</t>
         </is>
       </c>
-      <c r="E72" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
       <c r="F72" t="inlineStr">
         <is>
           <t>Yes</t>
@@ -3208,10 +3421,15 @@
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I72" t="inlineStr">
         <is>
           <t>Bans LGBTQ+ flags at government buildings.</t>
         </is>
@@ -3228,17 +3446,15 @@
           <t>WV</t>
         </is>
       </c>
-      <c r="C73" t="inlineStr"/>
-      <c r="D73" t="inlineStr">
+      <c r="C73" t="n">
+        <v>2025</v>
+      </c>
+      <c r="D73" t="inlineStr"/>
+      <c r="E73" t="inlineStr">
         <is>
           <t>https://www.wvlegislature.gov/bill_status/bills_history.cfm?input=299&amp;year=2025&amp;sessiontype=rs&amp;btype=bill</t>
         </is>
       </c>
-      <c r="E73" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
       <c r="F73" t="inlineStr">
         <is>
           <t>Yes</t>
@@ -3246,10 +3462,15 @@
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I73" t="inlineStr">
         <is>
           <t>Removes suicide risk exception for youth healthcare ban; redefines sex.</t>
         </is>
@@ -3266,17 +3487,15 @@
           <t>WV</t>
         </is>
       </c>
-      <c r="C74" t="inlineStr"/>
-      <c r="D74" t="inlineStr">
+      <c r="C74" t="n">
+        <v>2025</v>
+      </c>
+      <c r="D74" t="inlineStr"/>
+      <c r="E74" t="inlineStr">
         <is>
           <t>https://www.wvlegislature.gov/bill_status/bills_history.cfm?input=154&amp;year=2025&amp;sessiontype=rs&amp;btype=bill</t>
         </is>
       </c>
-      <c r="E74" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
       <c r="F74" t="inlineStr">
         <is>
           <t>Yes</t>
@@ -3284,10 +3503,15 @@
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I74" t="inlineStr">
         <is>
           <t>Prohibits LGBTQ+ instruction in schools; forces teachers to out students.</t>
         </is>
@@ -3304,17 +3528,15 @@
           <t>WV</t>
         </is>
       </c>
-      <c r="C75" t="inlineStr"/>
-      <c r="D75" t="inlineStr">
+      <c r="C75" t="n">
+        <v>2025</v>
+      </c>
+      <c r="D75" t="inlineStr"/>
+      <c r="E75" t="inlineStr">
         <is>
           <t>https://www.wvlegislature.gov/bill_status/bills_history.cfm?input=474&amp;year=2025&amp;sessiontype=rs&amp;btype=bill</t>
         </is>
       </c>
-      <c r="E75" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
       <c r="F75" t="inlineStr">
         <is>
           <t>Yes</t>
@@ -3322,10 +3544,15 @@
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I75" t="inlineStr">
         <is>
           <t>Bans DEI initiatives in public institutions.</t>
         </is>
@@ -3342,17 +3569,15 @@
           <t>WV</t>
         </is>
       </c>
-      <c r="C76" t="inlineStr"/>
-      <c r="D76" t="inlineStr">
+      <c r="C76" t="n">
+        <v>2025</v>
+      </c>
+      <c r="D76" t="inlineStr"/>
+      <c r="E76" t="inlineStr">
         <is>
           <t>https://www.wvlegislature.gov/bill_status/bills_history.cfm?input=456&amp;year=2025&amp;sessiontype=rs&amp;btype=bill</t>
         </is>
       </c>
-      <c r="E76" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
       <c r="F76" t="inlineStr">
         <is>
           <t>Yes</t>
@@ -3360,10 +3585,15 @@
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I76" t="inlineStr">
         <is>
           <t>Defines sex as unchanging; bans trans people from public facilities.</t>
         </is>
@@ -3380,17 +3610,15 @@
           <t>WY</t>
         </is>
       </c>
-      <c r="C77" t="inlineStr"/>
-      <c r="D77" t="inlineStr">
+      <c r="C77" t="n">
+        <v>2025</v>
+      </c>
+      <c r="D77" t="inlineStr"/>
+      <c r="E77" t="inlineStr">
         <is>
           <t>https://wyoleg.gov/Legislation/2025/HB0032</t>
         </is>
       </c>
-      <c r="E77" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
       <c r="F77" t="inlineStr">
         <is>
           <t>Yes</t>
@@ -3398,10 +3626,15 @@
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I77" t="inlineStr">
         <is>
           <t>Defines sex as unchanging and exclusively male or female.</t>
         </is>
@@ -3418,17 +3651,15 @@
           <t>WY</t>
         </is>
       </c>
-      <c r="C78" t="inlineStr"/>
-      <c r="D78" t="inlineStr">
+      <c r="C78" t="n">
+        <v>2025</v>
+      </c>
+      <c r="D78" t="inlineStr"/>
+      <c r="E78" t="inlineStr">
         <is>
           <t>https://wyoleg.gov/Legislation/2025/HB0164</t>
         </is>
       </c>
-      <c r="E78" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
       <c r="F78" t="inlineStr">
         <is>
           <t>Yes</t>
@@ -3436,10 +3667,15 @@
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I78" t="inlineStr">
         <is>
           <t>Bans gender-affirming care for youth.</t>
         </is>
@@ -3456,17 +3692,15 @@
           <t>WY</t>
         </is>
       </c>
-      <c r="C79" t="inlineStr"/>
-      <c r="D79" t="inlineStr">
+      <c r="C79" t="n">
+        <v>2025</v>
+      </c>
+      <c r="D79" t="inlineStr"/>
+      <c r="E79" t="inlineStr">
         <is>
           <t>https://wyoleg.gov/Legislation/2025/SF0044</t>
         </is>
       </c>
-      <c r="E79" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
       <c r="F79" t="inlineStr">
         <is>
           <t>Yes</t>
@@ -3474,10 +3708,15 @@
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I79" t="inlineStr">
         <is>
           <t>Bans trans students from sports teams aligned with gender identity.</t>
         </is>
@@ -3494,17 +3733,15 @@
           <t>WY</t>
         </is>
       </c>
-      <c r="C80" t="inlineStr"/>
-      <c r="D80" t="inlineStr">
+      <c r="C80" t="n">
+        <v>2025</v>
+      </c>
+      <c r="D80" t="inlineStr"/>
+      <c r="E80" t="inlineStr">
         <is>
           <t>https://wyoleg.gov/Legislation/2025/SF0077</t>
         </is>
       </c>
-      <c r="E80" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
       <c r="F80" t="inlineStr">
         <is>
           <t>Yes</t>
@@ -3512,10 +3749,15 @@
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I80" t="inlineStr">
         <is>
           <t>Prohibits state employees from affirming gender through names/pronouns.</t>
         </is>
@@ -3532,17 +3774,15 @@
           <t>WY</t>
         </is>
       </c>
-      <c r="C81" t="inlineStr"/>
-      <c r="D81" t="inlineStr">
+      <c r="C81" t="n">
+        <v>2025</v>
+      </c>
+      <c r="D81" t="inlineStr"/>
+      <c r="E81" t="inlineStr">
         <is>
           <t>https://wyoleg.gov/Legislation/2025/SF0062</t>
         </is>
       </c>
-      <c r="E81" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
       <c r="F81" t="inlineStr">
         <is>
           <t>Yes</t>
@@ -3550,10 +3790,15 @@
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I81" t="inlineStr">
         <is>
           <t>Bans trans students from school facilities aligned with gender identity.</t>
         </is>
@@ -3570,17 +3815,15 @@
           <t>WY</t>
         </is>
       </c>
-      <c r="C82" t="inlineStr"/>
-      <c r="D82" t="inlineStr">
+      <c r="C82" t="n">
+        <v>2025</v>
+      </c>
+      <c r="D82" t="inlineStr"/>
+      <c r="E82" t="inlineStr">
         <is>
           <t>https://wyoleg.gov/Legislation/2025/HB0072</t>
         </is>
       </c>
-      <c r="E82" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
       <c r="F82" t="inlineStr">
         <is>
           <t>Yes</t>
@@ -3588,10 +3831,15 @@
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I82" t="inlineStr">
         <is>
           <t>Bans trans people from government facilities based on sex at birth.</t>
         </is>
@@ -3608,17 +3856,15 @@
           <t>WY</t>
         </is>
       </c>
-      <c r="C83" t="inlineStr"/>
-      <c r="D83" t="inlineStr">
+      <c r="C83" t="n">
+        <v>2025</v>
+      </c>
+      <c r="D83" t="inlineStr"/>
+      <c r="E83" t="inlineStr">
         <is>
           <t>https://wyoleg.gov/Legislation/2025/HB0207</t>
         </is>
       </c>
-      <c r="E83" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
       <c r="F83" t="inlineStr">
         <is>
           <t>Yes</t>
@@ -3626,10 +3872,15 @@
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I83" t="inlineStr">
         <is>
           <t>Allows religious exemptions to deny housing, healthcare, equal pay.</t>
         </is>

--- a/anti_trans_legislation_2025_with_dates.xlsx
+++ b/anti_trans_legislation_2025_with_dates.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I83"/>
+  <dimension ref="A1:I188"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -483,25 +483,21 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>H.R. 28 - Protection of Women and Girls in Sports Act</t>
+          <t>S.B. 79 - Single-sex facilities ban</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Federal</t>
+          <t>AL</t>
         </is>
       </c>
       <c r="C2" t="n">
         <v>2025</v>
       </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>2025-01-14</t>
-        </is>
-      </c>
+      <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr">
         <is>
-          <t>https://www.congress.gov/bill/119th-congress/house-bill/28</t>
+          <t>https://alison.legislature.state.al.us/files/pdf/SearchableInstruments/2025RS/SB79-enr.pdf</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -511,7 +507,7 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Yes (House)</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
@@ -521,32 +517,28 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>Passed House 218-206 on Jan 14, 2025. Awaiting Senate action.</t>
+          <t>Bans trans people from single-sex spaces based on sex at birth.</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>H.R. 3492 - Protect Children's Innocence Act</t>
+          <t>S.B. 486 - Bathroom/facilities restrictions</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Federal</t>
+          <t>AR</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>2025</v>
       </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>2025-12-17</t>
-        </is>
-      </c>
+      <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr">
         <is>
-          <t>https://www.congress.gov/bill/119th-congress/house-bill/3492</t>
+          <t>https://arkleg.state.ar.us/Home/FTPDocument?path=%2FBills%2F2025R%2FPublic%2FSB486.pdf</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -556,7 +548,7 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Pending</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -566,32 +558,28 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>Scheduled for House floor vote Dec 17, 2025. Would criminalize gender-affirming care for minors.</t>
+          <t>Bans trans people from single-sex spaces; allows lawsuits.</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>H.R. 498 - Do No Harm in Medicaid Act</t>
+          <t>S.B. 444 - Healthcare provider refusal</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Federal</t>
+          <t>AR</t>
         </is>
       </c>
       <c r="C4" t="n">
         <v>2025</v>
       </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>2025-12-17</t>
-        </is>
-      </c>
+      <c r="D4" t="inlineStr"/>
       <c r="E4" t="inlineStr">
         <is>
-          <t>https://www.congress.gov/bill/119th-congress/house-bill/498</t>
+          <t>https://arkleg.state.ar.us/Home/FTPDocument?path=%2FBills%2F2025R%2FPublic%2FSB444.pdf</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -601,7 +589,7 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Pending</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -611,19 +599,19 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>Scheduled for House vote Dec 17, 2025. Would ban Medicaid coverage of gender-affirming care for youth.</t>
+          <t>Allows doctors to refuse gender transition treatments.</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>S.B. 79 - Single-sex facilities ban</t>
+          <t>H.B. 1916 - Gender-affirming care malpractice</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>AL</t>
+          <t>AR</t>
         </is>
       </c>
       <c r="C5" t="n">
@@ -632,7 +620,7 @@
       <c r="D5" t="inlineStr"/>
       <c r="E5" t="inlineStr">
         <is>
-          <t>https://alison.legislature.state.al.us/files/pdf/SearchableInstruments/2025RS/SB79-enr.pdf</t>
+          <t>https://arkleg.state.ar.us/Home/FTPDocument?path=%2FBills%2F2025R%2FPublic%2FHB1916.pdf</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -652,14 +640,14 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>Bans trans people from single-sex spaces based on sex at birth.</t>
+          <t>Defines gender-affirming care for youth as malpractice.</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>S.B. 486 - Bathroom/facilities restrictions</t>
+          <t>H.B. 1669 - Foster care exemption</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -673,7 +661,7 @@
       <c r="D6" t="inlineStr"/>
       <c r="E6" t="inlineStr">
         <is>
-          <t>https://arkleg.state.ar.us/Home/FTPDocument?path=%2FBills%2F2025R%2FPublic%2FSB486.pdf</t>
+          <t>https://arkleg.state.ar.us/Home/FTPDocument?path=%2FBills%2F2025R%2FPublic%2FHB1669.pdf</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -693,14 +681,14 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>Bans trans people from single-sex spaces; allows lawsuits.</t>
+          <t>Allows anti-LGBTQ+ parents to foster LGBTQ+ children.</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>S.B. 444 - Healthcare provider refusal</t>
+          <t>H.B. 1616 - Religious exemptions</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -714,7 +702,7 @@
       <c r="D7" t="inlineStr"/>
       <c r="E7" t="inlineStr">
         <is>
-          <t>https://arkleg.state.ar.us/Home/FTPDocument?path=%2FBills%2F2025R%2FPublic%2FSB444.pdf</t>
+          <t>https://arkleg.state.ar.us/Home/FTPDocument?path=%2FBills%2F2025R%2FPublic%2FHB1615.pdf</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -734,14 +722,14 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>Allows doctors to refuse gender transition treatments.</t>
+          <t>Creates religious exemptions for nondiscrimination protections.</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>H.B. 1916 - Gender-affirming care malpractice</t>
+          <t>H.B. 1307 - Public funds restriction</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -755,7 +743,7 @@
       <c r="D8" t="inlineStr"/>
       <c r="E8" t="inlineStr">
         <is>
-          <t>https://arkleg.state.ar.us/Home/FTPDocument?path=%2FBills%2F2025R%2FPublic%2FHB1916.pdf</t>
+          <t>https://arkleg.state.ar.us/Home/FTPDocument?path=%2FBills%2F2025R%2FPublic%2FHB1307.pdf</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -775,28 +763,32 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>Defines gender-affirming care for youth as malpractice.</t>
+          <t>Restricts public funds from covering gender-affirming care.</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>H.B. 1669 - Foster care exemption</t>
+          <t>H.B. 2438 - Birth certificate gender marker ban</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>AR</t>
+          <t>AZ</t>
         </is>
       </c>
       <c r="C9" t="n">
         <v>2025</v>
       </c>
-      <c r="D9" t="inlineStr"/>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2025-05-01</t>
+        </is>
+      </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>https://arkleg.state.ar.us/Home/FTPDocument?path=%2FBills%2F2025R%2FPublic%2FHB1669.pdf</t>
+          <t>https://www.azleg.gov/legtext/56leg/2R/bills/HB2438P.pdf</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -806,38 +798,42 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Vetoed</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>Allows anti-LGBTQ+ parents to foster LGBTQ+ children.</t>
+          <t>Vetoed by Gov. Hobbs May 2025. Would have banned gender marker changes on birth certificates.</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>H.B. 1616 - Religious exemptions</t>
+          <t>S.B. 1694 - DEI/gender identity ban in higher ed</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>AR</t>
+          <t>AZ</t>
         </is>
       </c>
       <c r="C10" t="n">
         <v>2025</v>
       </c>
-      <c r="D10" t="inlineStr"/>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2025-05-01</t>
+        </is>
+      </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>https://arkleg.state.ar.us/Home/FTPDocument?path=%2FBills%2F2025R%2FPublic%2FHB1615.pdf</t>
+          <t>https://www.azleg.gov/legtext/56leg/2R/bills/SB1694P.pdf</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -847,38 +843,42 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Vetoed</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>Creates religious exemptions for nondiscrimination protections.</t>
+          <t>Vetoed by Gov. Hobbs May 2025. Would have banned DEI/gender identity courses.</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>H.B. 1307 - Public funds restriction</t>
+          <t>S.B. 1256 - State agency DEI ban</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>AR</t>
+          <t>AZ</t>
         </is>
       </c>
       <c r="C11" t="n">
         <v>2025</v>
       </c>
-      <c r="D11" t="inlineStr"/>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2025-05-01</t>
+        </is>
+      </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>https://arkleg.state.ar.us/Home/FTPDocument?path=%2FBills%2F2025R%2FPublic%2FHB1307.pdf</t>
+          <t>https://www.azleg.gov/legtext/56leg/2R/bills/SB1256P.pdf</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -888,24 +888,24 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Vetoed</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>Restricts public funds from covering gender-affirming care.</t>
+          <t>Vetoed by Gov. Hobbs May 2025. Would have banned gender identity policies at state agencies.</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>H.B. 2438 - Birth certificate gender marker ban</t>
+          <t>H.B. 2062 - Legal recognition erasure</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -916,14 +916,10 @@
       <c r="C12" t="n">
         <v>2025</v>
       </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>2025-05-01</t>
-        </is>
-      </c>
+      <c r="D12" t="inlineStr"/>
       <c r="E12" t="inlineStr">
         <is>
-          <t>https://www.azleg.gov/legtext/56leg/2R/bills/HB2438P.pdf</t>
+          <t>https://www.azleg.gov/legtext/56leg/2R/bills/HB2062P.pdf</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -943,19 +939,19 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>Vetoed by Gov. Hobbs May 2025. Would have banned gender marker changes on birth certificates.</t>
+          <t>Vetoed by Gov. Hobbs 2025. Would have erased trans people from legal recognition.</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>S.B. 1694 - DEI/gender identity ban in higher ed</t>
+          <t>H.R. 28 - Protection of Women and Girls in Sports Act</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>AZ</t>
+          <t>Federal</t>
         </is>
       </c>
       <c r="C13" t="n">
@@ -963,12 +959,12 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>2025-05-01</t>
+          <t>2025-01-14</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>https://www.azleg.gov/legtext/56leg/2R/bills/SB1694P.pdf</t>
+          <t>https://www.congress.gov/bill/119th-congress/house-bill/28</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -978,29 +974,29 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes (House)</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Vetoed</t>
+          <t>No</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>Vetoed by Gov. Hobbs May 2025. Would have banned DEI/gender identity courses.</t>
+          <t>Passed House 218-206 on Jan 14, 2025. Awaiting Senate action.</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>S.B. 1256 - State agency DEI ban</t>
+          <t>H.R. 3492 - Protect Children's Innocence Act</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>AZ</t>
+          <t>Federal</t>
         </is>
       </c>
       <c r="C14" t="n">
@@ -1008,12 +1004,12 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>2025-05-01</t>
+          <t>2025-12-17</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>https://www.azleg.gov/legtext/56leg/2R/bills/SB1256P.pdf</t>
+          <t>https://www.congress.gov/bill/119th-congress/house-bill/3492</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -1023,38 +1019,42 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Pending</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Vetoed</t>
+          <t>No</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>Vetoed by Gov. Hobbs May 2025. Would have banned gender identity policies at state agencies.</t>
+          <t>Scheduled for House floor vote Dec 17, 2025. Would criminalize gender-affirming care for minors.</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>H.B. 2062 - Legal recognition erasure</t>
+          <t>H.R. 498 - Do No Harm in Medicaid Act</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>AZ</t>
+          <t>Federal</t>
         </is>
       </c>
       <c r="C15" t="n">
         <v>2025</v>
       </c>
-      <c r="D15" t="inlineStr"/>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>2025-12-17</t>
+        </is>
+      </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>https://www.azleg.gov/legtext/56leg/2R/bills/HB2062P.pdf</t>
+          <t>https://www.congress.gov/bill/119th-congress/house-bill/498</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -1064,17 +1064,17 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Pending</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Vetoed</t>
+          <t>No</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>Vetoed by Gov. Hobbs 2025. Would have erased trans people from legal recognition.</t>
+          <t>Scheduled for House vote Dec 17, 2025. Would ban Medicaid coverage of gender-affirming care for youth.</t>
         </is>
       </c>
     </row>
@@ -1204,12 +1204,12 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>H.B. 264 - Facilities ban (prisons, colleges, shelters)</t>
+          <t>S.F. 418 - Comprehensive anti-trans bill</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>ID</t>
+          <t>IA</t>
         </is>
       </c>
       <c r="C19" t="n">
@@ -1218,7 +1218,7 @@
       <c r="D19" t="inlineStr"/>
       <c r="E19" t="inlineStr">
         <is>
-          <t>https://legislature.idaho.gov/wp-content/uploads/sessioninfo/2025/legislation/H0264.pdf</t>
+          <t>https://www.legis.iowa.gov/legislation/BillBook?ba=SF418&amp;ga=91</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -1238,19 +1238,19 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>Bans trans people from facilities in prisons, colleges, shelters.</t>
+          <t>Removes gender identity from antidiscrimination law, bans birth certificate changes, bans instruction through 6th grade.</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>H.B. 352 - K-12 instruction ban</t>
+          <t>H.F. 1049 - Adult Medicaid ban</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>ID</t>
+          <t>IA</t>
         </is>
       </c>
       <c r="C20" t="n">
@@ -1259,7 +1259,7 @@
       <c r="D20" t="inlineStr"/>
       <c r="E20" t="inlineStr">
         <is>
-          <t>https://legislature.idaho.gov/wp-content/uploads/sessioninfo/2025/legislation/H0352.pdf</t>
+          <t>https://www.legis.iowa.gov/legislation/BillBook?ga=91&amp;ba=hf1049</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -1279,19 +1279,19 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>Bans instruction on LGBTQ+ identities K-12.</t>
+          <t>Bans Medicaid from covering gender-affirming care for adults.</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>S.B. 1198 - University DEI ban</t>
+          <t>H.F. 856 - DEI ban</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>ID</t>
+          <t>IA</t>
         </is>
       </c>
       <c r="C21" t="n">
@@ -1300,7 +1300,7 @@
       <c r="D21" t="inlineStr"/>
       <c r="E21" t="inlineStr">
         <is>
-          <t>https://legislature.idaho.gov/wp-content/uploads/sessioninfo/2025/legislation/S1198.pdf</t>
+          <t>https://legiscan.com/IA/text/HF856/id/3158480</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -1320,14 +1320,14 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>Prohibits DEI initiatives at universities.</t>
+          <t>Bans DEI programs at public institutions.</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>H.B. 59 - Healthcare provider exemptions</t>
+          <t>H.B. 264 - Facilities ban (prisons, colleges, shelters)</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1341,7 +1341,7 @@
       <c r="D22" t="inlineStr"/>
       <c r="E22" t="inlineStr">
         <is>
-          <t>https://legislature.idaho.gov/wp-content/uploads/sessioninfo/2025/legislation/H0059.pdf</t>
+          <t>https://legislature.idaho.gov/wp-content/uploads/sessioninfo/2025/legislation/H0264.pdf</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
@@ -1361,14 +1361,14 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>Religious exemptions for healthcare providers.</t>
+          <t>Bans trans people from facilities in prisons, colleges, shelters.</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>S.B. 1027 - Employer protection</t>
+          <t>H.B. 352 - K-12 instruction ban</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1382,7 +1382,7 @@
       <c r="D23" t="inlineStr"/>
       <c r="E23" t="inlineStr">
         <is>
-          <t>https://legislature.idaho.gov/wp-content/uploads/sessioninfo/2025/legislation/S1027.pdf</t>
+          <t>https://legislature.idaho.gov/wp-content/uploads/sessioninfo/2025/legislation/H0352.pdf</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
@@ -1402,14 +1402,14 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>Protects employers refusing to facilitate gender transition treatments.</t>
+          <t>Bans instruction on LGBTQ+ identities K-12.</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>H.B. 41 - Flag ban</t>
+          <t>S.B. 1198 - University DEI ban</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1423,7 +1423,7 @@
       <c r="D24" t="inlineStr"/>
       <c r="E24" t="inlineStr">
         <is>
-          <t>https://legislature.idaho.gov/wp-content/uploads/sessioninfo/2025/legislation/H0041.pdf</t>
+          <t>https://legislature.idaho.gov/wp-content/uploads/sessioninfo/2025/legislation/S1198.pdf</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
@@ -1443,14 +1443,14 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>Bans LGBTQ+ flags at public buildings.</t>
+          <t>Prohibits DEI initiatives at universities.</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>H.B. 239 - Parental permission for sex ed</t>
+          <t>H.B. 59 - Healthcare provider exemptions</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1464,7 +1464,7 @@
       <c r="D25" t="inlineStr"/>
       <c r="E25" t="inlineStr">
         <is>
-          <t>https://legislature.idaho.gov/wp-content/uploads/sessioninfo/2025/legislation/H0239.pdf</t>
+          <t>https://legislature.idaho.gov/wp-content/uploads/sessioninfo/2025/legislation/H0059.pdf</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
@@ -1484,19 +1484,19 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>Requires parent permission to study human sexuality.</t>
+          <t>Religious exemptions for healthcare providers.</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>H.B. 1041 - Sports ban</t>
+          <t>S.B. 1027 - Employer protection</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>ID</t>
         </is>
       </c>
       <c r="C26" t="n">
@@ -1505,7 +1505,7 @@
       <c r="D26" t="inlineStr"/>
       <c r="E26" t="inlineStr">
         <is>
-          <t>https://iga.in.gov/legislative/2025/bills/house/1041/details</t>
+          <t>https://legislature.idaho.gov/wp-content/uploads/sessioninfo/2025/legislation/S1027.pdf</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
@@ -1525,19 +1525,19 @@
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>Bans trans women from women's sports.</t>
+          <t>Protects employers refusing to facilitate gender transition treatments.</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>H.B. 1412 - Non-abusive classification</t>
+          <t>H.B. 41 - Flag ban</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>ID</t>
         </is>
       </c>
       <c r="C27" t="n">
@@ -1546,7 +1546,7 @@
       <c r="D27" t="inlineStr"/>
       <c r="E27" t="inlineStr">
         <is>
-          <t>https://legiscan.com/IN/text/HB1412/2025</t>
+          <t>https://legislature.idaho.gov/wp-content/uploads/sessioninfo/2025/legislation/H0041.pdf</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
@@ -1566,19 +1566,19 @@
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>Classifies parents denying youth gender-affirming care as non-abusive.</t>
+          <t>Bans LGBTQ+ flags at public buildings.</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>S.F. 418 - Comprehensive anti-trans bill</t>
+          <t>H.B. 239 - Parental permission for sex ed</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>IA</t>
+          <t>ID</t>
         </is>
       </c>
       <c r="C28" t="n">
@@ -1587,7 +1587,7 @@
       <c r="D28" t="inlineStr"/>
       <c r="E28" t="inlineStr">
         <is>
-          <t>https://www.legis.iowa.gov/legislation/BillBook?ba=SF418&amp;ga=91</t>
+          <t>https://legislature.idaho.gov/wp-content/uploads/sessioninfo/2025/legislation/H0239.pdf</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
@@ -1607,19 +1607,19 @@
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>Removes gender identity from antidiscrimination law, bans birth certificate changes, bans instruction through 6th grade.</t>
+          <t>Requires parent permission to study human sexuality.</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>H.F. 1049 - Adult Medicaid ban</t>
+          <t>H.B. 1041 - Sports ban</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>IA</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C29" t="n">
@@ -1628,7 +1628,7 @@
       <c r="D29" t="inlineStr"/>
       <c r="E29" t="inlineStr">
         <is>
-          <t>https://www.legis.iowa.gov/legislation/BillBook?ga=91&amp;ba=hf1049</t>
+          <t>https://iga.in.gov/legislative/2025/bills/house/1041/details</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
@@ -1648,19 +1648,19 @@
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>Bans Medicaid from covering gender-affirming care for adults.</t>
+          <t>Bans trans women from women's sports.</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>H.F. 856 - DEI ban</t>
+          <t>H.B. 1412 - Non-abusive classification</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>IA</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C30" t="n">
@@ -1669,7 +1669,7 @@
       <c r="D30" t="inlineStr"/>
       <c r="E30" t="inlineStr">
         <is>
-          <t>https://legiscan.com/IA/text/HF856/id/3158480</t>
+          <t>https://legiscan.com/IN/text/HB1412/2025</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
@@ -1689,7 +1689,7 @@
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>Bans DEI programs at public institutions.</t>
+          <t>Classifies parents denying youth gender-affirming care as non-abusive.</t>
         </is>
       </c>
     </row>
@@ -3883,6 +3883,3947 @@
       <c r="I83" t="inlineStr">
         <is>
           <t>Allows religious exemptions to deny housing, healthcare, equal pay.</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>AL HB261 - Sports - Prohibits biological males from athletic teams for females</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>AL</t>
+        </is>
+      </c>
+      <c r="C84" t="n">
+        <v>2023</v>
+      </c>
+      <c r="D84" t="inlineStr"/>
+      <c r="E84" t="inlineStr"/>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I84" t="inlineStr">
+        <is>
+          <t>Passed in 2023. Sports - Prohibits biological males from athletic teams for females</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>AL SB261 - Government contracts protection</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>AL</t>
+        </is>
+      </c>
+      <c r="C85" t="n">
+        <v>2023</v>
+      </c>
+      <c r="D85" t="inlineStr"/>
+      <c r="E85" t="inlineStr"/>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I85" t="inlineStr">
+        <is>
+          <t>Passed in 2023. Government contracts protection</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>AR HB1156 - Public school student sex policies - bathrooms</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>AR</t>
+        </is>
+      </c>
+      <c r="C86" t="n">
+        <v>2023</v>
+      </c>
+      <c r="D86" t="inlineStr"/>
+      <c r="E86" t="inlineStr"/>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I86" t="inlineStr">
+        <is>
+          <t>Passed in 2023. Public school student sex policies - bathrooms</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>AR HB1468 - Given Name Act - restricts pronouns without parental consent</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>AR</t>
+        </is>
+      </c>
+      <c r="C87" t="n">
+        <v>2023</v>
+      </c>
+      <c r="D87" t="inlineStr"/>
+      <c r="E87" t="inlineStr"/>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I87" t="inlineStr">
+        <is>
+          <t>Passed in 2023. Given Name Act - restricts pronouns without parental consent</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>AR HB1615 - Conscience Protection Act</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>AR</t>
+        </is>
+      </c>
+      <c r="C88" t="n">
+        <v>2023</v>
+      </c>
+      <c r="D88" t="inlineStr"/>
+      <c r="E88" t="inlineStr"/>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I88" t="inlineStr">
+        <is>
+          <t>Passed in 2023. Conscience Protection Act</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>AR SB125 - Free speech at higher education</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>AR</t>
+        </is>
+      </c>
+      <c r="C89" t="n">
+        <v>2023</v>
+      </c>
+      <c r="D89" t="inlineStr"/>
+      <c r="E89" t="inlineStr"/>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I89" t="inlineStr">
+        <is>
+          <t>Passed in 2023. Free speech at higher education</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>AR SB199 - Protecting Minors From Medical Malpractice Act</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>AR</t>
+        </is>
+      </c>
+      <c r="C90" t="n">
+        <v>2023</v>
+      </c>
+      <c r="D90" t="inlineStr"/>
+      <c r="E90" t="inlineStr"/>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I90" t="inlineStr">
+        <is>
+          <t>Passed in 2023. Protecting Minors From Medical Malpractice Act</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>AR SB270 - Bathroom access - criminal amendments</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>AR</t>
+        </is>
+      </c>
+      <c r="C91" t="n">
+        <v>2023</v>
+      </c>
+      <c r="D91" t="inlineStr"/>
+      <c r="E91" t="inlineStr"/>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H91" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I91" t="inlineStr">
+        <is>
+          <t>Passed in 2023. Bathroom access - criminal amendments</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>AR SB294 - LEARNS Act - education restrictions</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>AR</t>
+        </is>
+      </c>
+      <c r="C92" t="n">
+        <v>2023</v>
+      </c>
+      <c r="D92" t="inlineStr"/>
+      <c r="E92" t="inlineStr"/>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H92" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I92" t="inlineStr">
+        <is>
+          <t>Passed in 2023. LEARNS Act - education restrictions</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>AR SB43 - Adult-oriented performance restrictions</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>AR</t>
+        </is>
+      </c>
+      <c r="C93" t="n">
+        <v>2023</v>
+      </c>
+      <c r="D93" t="inlineStr"/>
+      <c r="E93" t="inlineStr"/>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I93" t="inlineStr">
+        <is>
+          <t>Passed in 2023. Adult-oriented performance restrictions</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>FL H1069 - Defines sex; revises instruction on reproductive health</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>FL</t>
+        </is>
+      </c>
+      <c r="C94" t="n">
+        <v>2023</v>
+      </c>
+      <c r="D94" t="inlineStr"/>
+      <c r="E94" t="inlineStr"/>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H94" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I94" t="inlineStr">
+        <is>
+          <t>Passed in 2023. Defines sex; revises instruction on reproductive health</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>FL H1521 - Restroom and facility access based on sex</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>FL</t>
+        </is>
+      </c>
+      <c r="C95" t="n">
+        <v>2023</v>
+      </c>
+      <c r="D95" t="inlineStr"/>
+      <c r="E95" t="inlineStr"/>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H95" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I95" t="inlineStr">
+        <is>
+          <t>Passed in 2023. Restroom and facility access based on sex</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>FL S0254 - Prohibits sex-reassignment procedures for minors</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>FL</t>
+        </is>
+      </c>
+      <c r="C96" t="n">
+        <v>2023</v>
+      </c>
+      <c r="D96" t="inlineStr"/>
+      <c r="E96" t="inlineStr"/>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H96" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I96" t="inlineStr">
+        <is>
+          <t>Passed in 2023. Prohibits sex-reassignment procedures for minors</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>FL S0266 - Higher education board duties</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>FL</t>
+        </is>
+      </c>
+      <c r="C97" t="n">
+        <v>2023</v>
+      </c>
+      <c r="D97" t="inlineStr"/>
+      <c r="E97" t="inlineStr"/>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H97" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I97" t="inlineStr">
+        <is>
+          <t>Passed in 2023. Higher education board duties</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>FL S1382 - Defense personnel recruitment principles</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>FL</t>
+        </is>
+      </c>
+      <c r="C98" t="n">
+        <v>2023</v>
+      </c>
+      <c r="D98" t="inlineStr"/>
+      <c r="E98" t="inlineStr"/>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H98" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I98" t="inlineStr">
+        <is>
+          <t>Passed in 2023. Defense personnel recruitment principles</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>GA SB140 - Prohibits surgical procedures for gender dysphoria in minors</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>GA</t>
+        </is>
+      </c>
+      <c r="C99" t="n">
+        <v>2023</v>
+      </c>
+      <c r="D99" t="inlineStr"/>
+      <c r="E99" t="inlineStr"/>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H99" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I99" t="inlineStr">
+        <is>
+          <t>Passed in 2023. Prohibits surgical procedures for gender dysphoria in minors</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>IA SF482 - Restroom access based on biological sex</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>IA</t>
+        </is>
+      </c>
+      <c r="C100" t="n">
+        <v>2023</v>
+      </c>
+      <c r="D100" t="inlineStr"/>
+      <c r="E100" t="inlineStr"/>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H100" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I100" t="inlineStr">
+        <is>
+          <t>Passed in 2023. Restroom access based on biological sex</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>IA SF496 - Parental rights; prohibits gender identity instruction K-6</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>IA</t>
+        </is>
+      </c>
+      <c r="C101" t="n">
+        <v>2023</v>
+      </c>
+      <c r="D101" t="inlineStr"/>
+      <c r="E101" t="inlineStr"/>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H101" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I101" t="inlineStr">
+        <is>
+          <t>Passed in 2023. Parental rights; prohibits gender identity instruction K-6</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>IA SF538 - Restricts gender transition procedures for minors</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>IA</t>
+        </is>
+      </c>
+      <c r="C102" t="n">
+        <v>2023</v>
+      </c>
+      <c r="D102" t="inlineStr"/>
+      <c r="E102" t="inlineStr"/>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H102" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I102" t="inlineStr">
+        <is>
+          <t>Passed in 2023. Restricts gender transition procedures for minors</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>ID H0071 - Vulnerable Child Protection Act</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>ID</t>
+        </is>
+      </c>
+      <c r="C103" t="n">
+        <v>2023</v>
+      </c>
+      <c r="D103" t="inlineStr"/>
+      <c r="E103" t="inlineStr"/>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H103" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I103" t="inlineStr">
+        <is>
+          <t>Passed in 2023. Vulnerable Child Protection Act</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>ID S1016 - Restroom access for public works contractors</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>ID</t>
+        </is>
+      </c>
+      <c r="C104" t="n">
+        <v>2023</v>
+      </c>
+      <c r="D104" t="inlineStr"/>
+      <c r="E104" t="inlineStr"/>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H104" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I104" t="inlineStr">
+        <is>
+          <t>Passed in 2023. Restroom access for public works contractors</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>ID S1100 - Privacy standards in public schools - bathrooms</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>ID</t>
+        </is>
+      </c>
+      <c r="C105" t="n">
+        <v>2023</v>
+      </c>
+      <c r="D105" t="inlineStr"/>
+      <c r="E105" t="inlineStr"/>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H105" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I105" t="inlineStr">
+        <is>
+          <t>Passed in 2023. Privacy standards in public schools - bathrooms</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>IN HB1569 - Corrections restrictions on gender therapy</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="C106" t="n">
+        <v>2023</v>
+      </c>
+      <c r="D106" t="inlineStr"/>
+      <c r="E106" t="inlineStr"/>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H106" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I106" t="inlineStr">
+        <is>
+          <t>Passed in 2023. Corrections restrictions on gender therapy</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>IN HB1608 - No sexuality instruction pre-K-3; parental notification</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="C107" t="n">
+        <v>2023</v>
+      </c>
+      <c r="D107" t="inlineStr"/>
+      <c r="E107" t="inlineStr"/>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H107" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I107" t="inlineStr">
+        <is>
+          <t>Passed in 2023. No sexuality instruction pre-K-3; parental notification</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>IN SB0480 - Prohibits gender transition for minors</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="C108" t="n">
+        <v>2023</v>
+      </c>
+      <c r="D108" t="inlineStr"/>
+      <c r="E108" t="inlineStr"/>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H108" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I108" t="inlineStr">
+        <is>
+          <t>Passed in 2023. Prohibits gender transition for minors</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>KS HB2100 - Public Investments and Contracts Protection</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>KS</t>
+        </is>
+      </c>
+      <c r="C109" t="n">
+        <v>2023</v>
+      </c>
+      <c r="D109" t="inlineStr"/>
+      <c r="E109" t="inlineStr"/>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H109" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I109" t="inlineStr">
+        <is>
+          <t>Passed in 2023. Public Investments and Contracts Protection</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>KS HB2138 - Separate accommodations by biological sex on trips</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>KS</t>
+        </is>
+      </c>
+      <c r="C110" t="n">
+        <v>2023</v>
+      </c>
+      <c r="D110" t="inlineStr"/>
+      <c r="E110" t="inlineStr"/>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H110" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I110" t="inlineStr">
+        <is>
+          <t>Passed in 2023. Separate accommodations by biological sex on trips</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>KS HB2238 - Fairness in Women's Sports Act</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>KS</t>
+        </is>
+      </c>
+      <c r="C111" t="n">
+        <v>2023</v>
+      </c>
+      <c r="D111" t="inlineStr"/>
+      <c r="E111" t="inlineStr"/>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H111" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I111" t="inlineStr">
+        <is>
+          <t>Passed in 2023. Fairness in Women's Sports Act</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>KS SB180 - Women's Bill of Rights - defines biological sex</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>KS</t>
+        </is>
+      </c>
+      <c r="C112" t="n">
+        <v>2023</v>
+      </c>
+      <c r="D112" t="inlineStr"/>
+      <c r="E112" t="inlineStr"/>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H112" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I112" t="inlineStr">
+        <is>
+          <t>Passed in 2023. Women's Bill of Rights - defines biological sex</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>KS SB228 - County jail provisions</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>KS</t>
+        </is>
+      </c>
+      <c r="C113" t="n">
+        <v>2023</v>
+      </c>
+      <c r="D113" t="inlineStr"/>
+      <c r="E113" t="inlineStr"/>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H113" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I113" t="inlineStr">
+        <is>
+          <t>Passed in 2023. County jail provisions</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>KY SB145 - Interscholastic athletics eligibility</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>KY</t>
+        </is>
+      </c>
+      <c r="C114" t="n">
+        <v>2023</v>
+      </c>
+      <c r="D114" t="inlineStr"/>
+      <c r="E114" t="inlineStr"/>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H114" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I114" t="inlineStr">
+        <is>
+          <t>Passed in 2023. Interscholastic athletics eligibility</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>KY SB150 - Parental notifications; pronoun restrictions</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>KY</t>
+        </is>
+      </c>
+      <c r="C115" t="n">
+        <v>2023</v>
+      </c>
+      <c r="D115" t="inlineStr"/>
+      <c r="E115" t="inlineStr"/>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H115" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I115" t="inlineStr">
+        <is>
+          <t>Passed in 2023. Parental notifications; pronoun restrictions</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>LA HB648 - Prohibits procedures to alter sex of minors</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>LA</t>
+        </is>
+      </c>
+      <c r="C116" t="n">
+        <v>2023</v>
+      </c>
+      <c r="D116" t="inlineStr"/>
+      <c r="E116" t="inlineStr"/>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H116" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I116" t="inlineStr">
+        <is>
+          <t>Passed in 2023. Prohibits procedures to alter sex of minors</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>MO HB15 - Appropriation bill with anti-trans provisions</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>MO</t>
+        </is>
+      </c>
+      <c r="C117" t="n">
+        <v>2023</v>
+      </c>
+      <c r="D117" t="inlineStr"/>
+      <c r="E117" t="inlineStr"/>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H117" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I117" t="inlineStr">
+        <is>
+          <t>Passed in 2023. Appropriation bill with anti-trans provisions</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>MO SB39 - Student athletic participation by sex</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>MO</t>
+        </is>
+      </c>
+      <c r="C118" t="n">
+        <v>2023</v>
+      </c>
+      <c r="D118" t="inlineStr"/>
+      <c r="E118" t="inlineStr"/>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H118" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I118" t="inlineStr">
+        <is>
+          <t>Passed in 2023. Student athletic participation by sex</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>MO SB49 - Missouri SAFE Act - healthcare restrictions</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>MO</t>
+        </is>
+      </c>
+      <c r="C119" t="n">
+        <v>2023</v>
+      </c>
+      <c r="D119" t="inlineStr"/>
+      <c r="E119" t="inlineStr"/>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H119" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I119" t="inlineStr">
+        <is>
+          <t>Passed in 2023. Missouri SAFE Act - healthcare restrictions</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>MS HB1125 - REAP Act - regulates transgender procedures for minors</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>MS</t>
+        </is>
+      </c>
+      <c r="C120" t="n">
+        <v>2023</v>
+      </c>
+      <c r="D120" t="inlineStr"/>
+      <c r="E120" t="inlineStr"/>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H120" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I120" t="inlineStr">
+        <is>
+          <t>Passed in 2023. REAP Act - regulates transgender procedures for minors</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>MT HB234 - Obscene material dissemination laws</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>MT</t>
+        </is>
+      </c>
+      <c r="C121" t="n">
+        <v>2023</v>
+      </c>
+      <c r="D121" t="inlineStr"/>
+      <c r="E121" t="inlineStr"/>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H121" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I121" t="inlineStr">
+        <is>
+          <t>Passed in 2023. Obscene material dissemination laws</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>MT HB303 - Medical Ethics and Diversity Act</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>MT</t>
+        </is>
+      </c>
+      <c r="C122" t="n">
+        <v>2023</v>
+      </c>
+      <c r="D122" t="inlineStr"/>
+      <c r="E122" t="inlineStr"/>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H122" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I122" t="inlineStr">
+        <is>
+          <t>Passed in 2023. Medical Ethics and Diversity Act</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>MT HB359 - Prohibits minors from attending drag shows</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>MT</t>
+        </is>
+      </c>
+      <c r="C123" t="n">
+        <v>2023</v>
+      </c>
+      <c r="D123" t="inlineStr"/>
+      <c r="E123" t="inlineStr"/>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H123" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I123" t="inlineStr">
+        <is>
+          <t>Passed in 2023. Prohibits minors from attending drag shows</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>MT HB361 - Name and sex usage not discrimination</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>MT</t>
+        </is>
+      </c>
+      <c r="C124" t="n">
+        <v>2023</v>
+      </c>
+      <c r="D124" t="inlineStr"/>
+      <c r="E124" t="inlineStr"/>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H124" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I124" t="inlineStr">
+        <is>
+          <t>Passed in 2023. Name and sex usage not discrimination</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>MT SB458 - Defines sex in Montana law</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>MT</t>
+        </is>
+      </c>
+      <c r="C125" t="n">
+        <v>2023</v>
+      </c>
+      <c r="D125" t="inlineStr"/>
+      <c r="E125" t="inlineStr"/>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H125" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I125" t="inlineStr">
+        <is>
+          <t>Passed in 2023. Defines sex in Montana law</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>MT SB518 - Parental involvement in education</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>MT</t>
+        </is>
+      </c>
+      <c r="C126" t="n">
+        <v>2023</v>
+      </c>
+      <c r="D126" t="inlineStr"/>
+      <c r="E126" t="inlineStr"/>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H126" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I126" t="inlineStr">
+        <is>
+          <t>Passed in 2023. Parental involvement in education</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>MT SB99 - Youth Health Protection Act</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>MT</t>
+        </is>
+      </c>
+      <c r="C127" t="n">
+        <v>2023</v>
+      </c>
+      <c r="D127" t="inlineStr"/>
+      <c r="E127" t="inlineStr"/>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H127" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I127" t="inlineStr">
+        <is>
+          <t>Passed in 2023. Youth Health Protection Act</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>NC H574 - Fairness in Women's Sports Act</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>NC</t>
+        </is>
+      </c>
+      <c r="C128" t="n">
+        <v>2023</v>
+      </c>
+      <c r="D128" t="inlineStr"/>
+      <c r="E128" t="inlineStr"/>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H128" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I128" t="inlineStr">
+        <is>
+          <t>Passed in 2023. Fairness in Women's Sports Act</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>NC H808 - Gender transition restrictions for minors</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>NC</t>
+        </is>
+      </c>
+      <c r="C129" t="n">
+        <v>2023</v>
+      </c>
+      <c r="D129" t="inlineStr"/>
+      <c r="E129" t="inlineStr"/>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H129" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I129" t="inlineStr">
+        <is>
+          <t>Passed in 2023. Gender transition restrictions for minors</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>NC S49 - Parents' Bill of Rights</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>NC</t>
+        </is>
+      </c>
+      <c r="C130" t="n">
+        <v>2023</v>
+      </c>
+      <c r="D130" t="inlineStr"/>
+      <c r="E130" t="inlineStr"/>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H130" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I130" t="inlineStr">
+        <is>
+          <t>Passed in 2023. Parents' Bill of Rights</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>ND HB1139 - Required elements of birth records</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>ND</t>
+        </is>
+      </c>
+      <c r="C131" t="n">
+        <v>2023</v>
+      </c>
+      <c r="D131" t="inlineStr"/>
+      <c r="E131" t="inlineStr"/>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H131" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I131" t="inlineStr">
+        <is>
+          <t>Passed in 2023. Required elements of birth records</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>ND HB1205 - Libraries restrict explicit sexual material</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>ND</t>
+        </is>
+      </c>
+      <c r="C132" t="n">
+        <v>2023</v>
+      </c>
+      <c r="D132" t="inlineStr"/>
+      <c r="E132" t="inlineStr"/>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H132" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I132" t="inlineStr">
+        <is>
+          <t>Passed in 2023. Libraries restrict explicit sexual material</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>ND HB1249 - Athletic teams designated by sex</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>ND</t>
+        </is>
+      </c>
+      <c r="C133" t="n">
+        <v>2023</v>
+      </c>
+      <c r="D133" t="inlineStr"/>
+      <c r="E133" t="inlineStr"/>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H133" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I133" t="inlineStr">
+        <is>
+          <t>Passed in 2023. Athletic teams designated by sex</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>ND HB1254 - Prohibition of practices against minors - healthcare</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>ND</t>
+        </is>
+      </c>
+      <c r="C134" t="n">
+        <v>2023</v>
+      </c>
+      <c r="D134" t="inlineStr"/>
+      <c r="E134" t="inlineStr"/>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G134" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H134" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I134" t="inlineStr">
+        <is>
+          <t>Passed in 2023. Prohibition of practices against minors - healthcare</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>ND HB1297 - Birth record corrections/amendments</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>ND</t>
+        </is>
+      </c>
+      <c r="C135" t="n">
+        <v>2023</v>
+      </c>
+      <c r="D135" t="inlineStr"/>
+      <c r="E135" t="inlineStr"/>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G135" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H135" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I135" t="inlineStr">
+        <is>
+          <t>Passed in 2023. Birth record corrections/amendments</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>ND HB1333 - Adult-oriented performance restrictions</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>ND</t>
+        </is>
+      </c>
+      <c r="C136" t="n">
+        <v>2023</v>
+      </c>
+      <c r="D136" t="inlineStr"/>
+      <c r="E136" t="inlineStr"/>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G136" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H136" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I136" t="inlineStr">
+        <is>
+          <t>Passed in 2023. Adult-oriented performance restrictions</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>ND HB1473 - Restroom/locker room use by sex</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>ND</t>
+        </is>
+      </c>
+      <c r="C137" t="n">
+        <v>2023</v>
+      </c>
+      <c r="D137" t="inlineStr"/>
+      <c r="E137" t="inlineStr"/>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G137" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H137" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I137" t="inlineStr">
+        <is>
+          <t>Passed in 2023. Restroom/locker room use by sex</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>ND HB1474 - Defines female, male, and sex</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>ND</t>
+        </is>
+      </c>
+      <c r="C138" t="n">
+        <v>2023</v>
+      </c>
+      <c r="D138" t="inlineStr"/>
+      <c r="E138" t="inlineStr"/>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G138" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H138" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I138" t="inlineStr">
+        <is>
+          <t>Passed in 2023. Defines female, male, and sex</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>ND HB1489 - Higher ed athletic designations by sex</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>ND</t>
+        </is>
+      </c>
+      <c r="C139" t="n">
+        <v>2023</v>
+      </c>
+      <c r="D139" t="inlineStr"/>
+      <c r="E139" t="inlineStr"/>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G139" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H139" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I139" t="inlineStr">
+        <is>
+          <t>Passed in 2023. Higher ed athletic designations by sex</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>ND HB1522 - Preferred pronouns restrictions</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>ND</t>
+        </is>
+      </c>
+      <c r="C140" t="n">
+        <v>2023</v>
+      </c>
+      <c r="D140" t="inlineStr"/>
+      <c r="E140" t="inlineStr"/>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G140" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H140" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I140" t="inlineStr">
+        <is>
+          <t>Passed in 2023. Preferred pronouns restrictions</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>ND HCR3010 - Urges schools to distinguish by biological sex</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>ND</t>
+        </is>
+      </c>
+      <c r="C141" t="n">
+        <v>2023</v>
+      </c>
+      <c r="D141" t="inlineStr"/>
+      <c r="E141" t="inlineStr"/>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G141" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H141" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I141" t="inlineStr">
+        <is>
+          <t>Passed in 2023. Urges schools to distinguish by biological sex</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>NE LB574 - Let Them Grow Act and Preborn Child Protection</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>NE</t>
+        </is>
+      </c>
+      <c r="C142" t="n">
+        <v>2023</v>
+      </c>
+      <c r="D142" t="inlineStr"/>
+      <c r="E142" t="inlineStr"/>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G142" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H142" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I142" t="inlineStr">
+        <is>
+          <t>Passed in 2023. Let Them Grow Act and Preborn Child Protection</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>OK SB26 - School restroom/changing area designations</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="C143" t="n">
+        <v>2023</v>
+      </c>
+      <c r="D143" t="inlineStr"/>
+      <c r="E143" t="inlineStr"/>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G143" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H143" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I143" t="inlineStr">
+        <is>
+          <t>Passed in 2023. School restroom/changing area designations</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>OK SB404 - Oklahoma Religious Freedom Act</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="C144" t="n">
+        <v>2023</v>
+      </c>
+      <c r="D144" t="inlineStr"/>
+      <c r="E144" t="inlineStr"/>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G144" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H144" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I144" t="inlineStr">
+        <is>
+          <t>Passed in 2023. Oklahoma Religious Freedom Act</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>OK SB613 - Prohibits gender transition for children</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="C145" t="n">
+        <v>2023</v>
+      </c>
+      <c r="D145" t="inlineStr"/>
+      <c r="E145" t="inlineStr"/>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G145" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H145" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I145" t="inlineStr">
+        <is>
+          <t>Passed in 2023. Prohibits gender transition for children</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>SD HB1080 - Prohibits medical/surgical interventions on minors</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>SD</t>
+        </is>
+      </c>
+      <c r="C146" t="n">
+        <v>2023</v>
+      </c>
+      <c r="D146" t="inlineStr"/>
+      <c r="E146" t="inlineStr"/>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G146" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H146" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I146" t="inlineStr">
+        <is>
+          <t>Passed in 2023. Prohibits medical/surgical interventions on minors</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>TN HB0001 - Prohibits medical procedures enabling inconsistent identity</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>TN</t>
+        </is>
+      </c>
+      <c r="C147" t="n">
+        <v>2023</v>
+      </c>
+      <c r="D147" t="inlineStr"/>
+      <c r="E147" t="inlineStr"/>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G147" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H147" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I147" t="inlineStr">
+        <is>
+          <t>Passed in 2023. Prohibits medical procedures enabling inconsistent identity</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>TN HB0009 - Adult cabaret performances viewable by minors offense</t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>TN</t>
+        </is>
+      </c>
+      <c r="C148" t="n">
+        <v>2023</v>
+      </c>
+      <c r="D148" t="inlineStr"/>
+      <c r="E148" t="inlineStr"/>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G148" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H148" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I148" t="inlineStr">
+        <is>
+          <t>Passed in 2023. Adult cabaret performances viewable by minors offense</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>TN HB0239 - Adds 'sex' as defined statutory term</t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>TN</t>
+        </is>
+      </c>
+      <c r="C149" t="n">
+        <v>2023</v>
+      </c>
+      <c r="D149" t="inlineStr"/>
+      <c r="E149" t="inlineStr"/>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G149" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H149" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I149" t="inlineStr">
+        <is>
+          <t>Passed in 2023. Adds 'sex' as defined statutory term</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>TN HB0306 - Private school athletic participation by biological sex</t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>TN</t>
+        </is>
+      </c>
+      <c r="C150" t="n">
+        <v>2023</v>
+      </c>
+      <c r="D150" t="inlineStr"/>
+      <c r="E150" t="inlineStr"/>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G150" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H150" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I150" t="inlineStr">
+        <is>
+          <t>Passed in 2023. Private school athletic participation by biological sex</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>TN HB0727 - Parental consent for school activities</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>TN</t>
+        </is>
+      </c>
+      <c r="C151" t="n">
+        <v>2023</v>
+      </c>
+      <c r="D151" t="inlineStr"/>
+      <c r="E151" t="inlineStr"/>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G151" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H151" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I151" t="inlineStr">
+        <is>
+          <t>Passed in 2023. Parental consent for school activities</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>TN HB1269 - Teachers not required to use preferred pronouns</t>
+        </is>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>TN</t>
+        </is>
+      </c>
+      <c r="C152" t="n">
+        <v>2023</v>
+      </c>
+      <c r="D152" t="inlineStr"/>
+      <c r="E152" t="inlineStr"/>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G152" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H152" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I152" t="inlineStr">
+        <is>
+          <t>Passed in 2023. Teachers not required to use preferred pronouns</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>TN SB0001 - Prohibits medical procedures for gender transition</t>
+        </is>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>TN</t>
+        </is>
+      </c>
+      <c r="C153" t="n">
+        <v>2023</v>
+      </c>
+      <c r="D153" t="inlineStr"/>
+      <c r="E153" t="inlineStr"/>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G153" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H153" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I153" t="inlineStr">
+        <is>
+          <t>Passed in 2023. Prohibits medical procedures for gender transition</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>TX SB14 - Gender-affirming care restrictions for minors</t>
+        </is>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>TX</t>
+        </is>
+      </c>
+      <c r="C154" t="n">
+        <v>2023</v>
+      </c>
+      <c r="D154" t="inlineStr"/>
+      <c r="E154" t="inlineStr"/>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G154" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H154" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I154" t="inlineStr">
+        <is>
+          <t>Passed in 2023. Gender-affirming care restrictions for minors</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>TX SB15 - Sports participation restrictions</t>
+        </is>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>TX</t>
+        </is>
+      </c>
+      <c r="C155" t="n">
+        <v>2023</v>
+      </c>
+      <c r="D155" t="inlineStr"/>
+      <c r="E155" t="inlineStr"/>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G155" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H155" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I155" t="inlineStr">
+        <is>
+          <t>Passed in 2023. Sports participation restrictions</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>TX HB1686 - Parental rights and school policies</t>
+        </is>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>TX</t>
+        </is>
+      </c>
+      <c r="C156" t="n">
+        <v>2023</v>
+      </c>
+      <c r="D156" t="inlineStr"/>
+      <c r="E156" t="inlineStr"/>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G156" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H156" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I156" t="inlineStr">
+        <is>
+          <t>Passed in 2023. Parental rights and school policies</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>UT HB257 - Gender transition modifications for minors</t>
+        </is>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>UT</t>
+        </is>
+      </c>
+      <c r="C157" t="n">
+        <v>2023</v>
+      </c>
+      <c r="D157" t="inlineStr"/>
+      <c r="E157" t="inlineStr"/>
+      <c r="F157" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G157" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H157" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I157" t="inlineStr">
+        <is>
+          <t>Passed in 2023. Gender transition modifications for minors</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>UT SB16 - Sensitive materials in schools</t>
+        </is>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>UT</t>
+        </is>
+      </c>
+      <c r="C158" t="n">
+        <v>2023</v>
+      </c>
+      <c r="D158" t="inlineStr"/>
+      <c r="E158" t="inlineStr"/>
+      <c r="F158" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G158" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H158" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I158" t="inlineStr">
+        <is>
+          <t>Passed in 2023. Sensitive materials in schools</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>UT SB93 - School restroom and locker room amendments</t>
+        </is>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>UT</t>
+        </is>
+      </c>
+      <c r="C159" t="n">
+        <v>2023</v>
+      </c>
+      <c r="D159" t="inlineStr"/>
+      <c r="E159" t="inlineStr"/>
+      <c r="F159" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G159" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H159" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I159" t="inlineStr">
+        <is>
+          <t>Passed in 2023. School restroom and locker room amendments</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>WI AB377 - Gender transition medical intervention for under 18</t>
+        </is>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>WI</t>
+        </is>
+      </c>
+      <c r="C160" t="n">
+        <v>2023</v>
+      </c>
+      <c r="D160" t="inlineStr"/>
+      <c r="E160" t="inlineStr"/>
+      <c r="F160" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G160" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H160" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I160" t="inlineStr">
+        <is>
+          <t>Passed in 2023. Gender transition medical intervention for under 18</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>WV HB3042 - Save Women's Sports Bill</t>
+        </is>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>WV</t>
+        </is>
+      </c>
+      <c r="C161" t="n">
+        <v>2023</v>
+      </c>
+      <c r="D161" t="inlineStr"/>
+      <c r="E161" t="inlineStr"/>
+      <c r="F161" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G161" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H161" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I161" t="inlineStr">
+        <is>
+          <t>Passed in 2023. Save Women's Sports Bill</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>WV SB252 - Prohibited medical procedures for minors</t>
+        </is>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>WV</t>
+        </is>
+      </c>
+      <c r="C162" t="n">
+        <v>2023</v>
+      </c>
+      <c r="D162" t="inlineStr"/>
+      <c r="E162" t="inlineStr"/>
+      <c r="F162" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G162" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H162" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I162" t="inlineStr">
+        <is>
+          <t>Passed in 2023. Prohibited medical procedures for minors</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>WY SF0111 - Gender-affirming care classified as child abuse</t>
+        </is>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>WY</t>
+        </is>
+      </c>
+      <c r="C163" t="n">
+        <v>2023</v>
+      </c>
+      <c r="D163" t="inlineStr"/>
+      <c r="E163" t="inlineStr"/>
+      <c r="F163" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G163" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H163" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I163" t="inlineStr">
+        <is>
+          <t>Passed in 2023. Gender-affirming care classified as child abuse</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>WY HB0004 - School bathroom access restrictions</t>
+        </is>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>WY</t>
+        </is>
+      </c>
+      <c r="C164" t="n">
+        <v>2023</v>
+      </c>
+      <c r="D164" t="inlineStr"/>
+      <c r="E164" t="inlineStr"/>
+      <c r="F164" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G164" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H164" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I164" t="inlineStr">
+        <is>
+          <t>Passed in 2023. School bathroom access restrictions</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>AL SB184 - Vulnerable Child Compassion and Protection Act - healthcare restrictions</t>
+        </is>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>AL</t>
+        </is>
+      </c>
+      <c r="C165" t="n">
+        <v>2022</v>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>2022-04-08</t>
+        </is>
+      </c>
+      <c r="E165" t="inlineStr"/>
+      <c r="F165" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G165" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H165" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I165" t="inlineStr">
+        <is>
+          <t>Passed in 2022. Vulnerable Child Compassion and Protection Act - healthcare restrictions</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>AL HB322 - Parental Rights in Education</t>
+        </is>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>AL</t>
+        </is>
+      </c>
+      <c r="C166" t="n">
+        <v>2022</v>
+      </c>
+      <c r="D166" t="inlineStr"/>
+      <c r="E166" t="inlineStr"/>
+      <c r="F166" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G166" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H166" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I166" t="inlineStr">
+        <is>
+          <t>Passed in 2022. Parental Rights in Education</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>AZ SB1138 - Gender transition prohibition - healthcare</t>
+        </is>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>AZ</t>
+        </is>
+      </c>
+      <c r="C167" t="n">
+        <v>2022</v>
+      </c>
+      <c r="D167" t="inlineStr"/>
+      <c r="E167" t="inlineStr"/>
+      <c r="F167" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G167" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H167" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I167" t="inlineStr">
+        <is>
+          <t>Passed in 2022. Gender transition prohibition - healthcare</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>AZ HB2161 - Parental Rights</t>
+        </is>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>AZ</t>
+        </is>
+      </c>
+      <c r="C168" t="n">
+        <v>2022</v>
+      </c>
+      <c r="D168" t="inlineStr"/>
+      <c r="E168" t="inlineStr"/>
+      <c r="F168" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G168" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H168" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I168" t="inlineStr">
+        <is>
+          <t>Passed in 2022. Parental Rights</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>AZ SB1399 - Religious Exemptions for discrimination</t>
+        </is>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>AZ</t>
+        </is>
+      </c>
+      <c r="C169" t="n">
+        <v>2022</v>
+      </c>
+      <c r="D169" t="inlineStr"/>
+      <c r="E169" t="inlineStr"/>
+      <c r="F169" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G169" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H169" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I169" t="inlineStr">
+        <is>
+          <t>Passed in 2022. Religious Exemptions for discrimination</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>FL H1557 - Parental Rights in Education (Don't Say Gay)</t>
+        </is>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>FL</t>
+        </is>
+      </c>
+      <c r="C170" t="n">
+        <v>2022</v>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>2022-03-28</t>
+        </is>
+      </c>
+      <c r="E170" t="inlineStr"/>
+      <c r="F170" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G170" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H170" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I170" t="inlineStr">
+        <is>
+          <t>Passed in 2022. Parental Rights in Education (Don't Say Gay)</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>GA HB1084 - Save Women's Sports Act</t>
+        </is>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>GA</t>
+        </is>
+      </c>
+      <c r="C171" t="n">
+        <v>2022</v>
+      </c>
+      <c r="D171" t="inlineStr"/>
+      <c r="E171" t="inlineStr"/>
+      <c r="F171" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G171" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H171" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I171" t="inlineStr">
+        <is>
+          <t>Passed in 2022. Save Women's Sports Act</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>IA HF2416 - Save Women's Sports Act</t>
+        </is>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>IA</t>
+        </is>
+      </c>
+      <c r="C172" t="n">
+        <v>2022</v>
+      </c>
+      <c r="D172" t="inlineStr"/>
+      <c r="E172" t="inlineStr"/>
+      <c r="F172" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G172" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H172" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I172" t="inlineStr">
+        <is>
+          <t>Passed in 2022. Save Women's Sports Act</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>IN HB1041 - Fairness in Women's Sports</t>
+        </is>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="C173" t="n">
+        <v>2022</v>
+      </c>
+      <c r="D173" t="inlineStr"/>
+      <c r="E173" t="inlineStr"/>
+      <c r="F173" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G173" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H173" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I173" t="inlineStr">
+        <is>
+          <t>Passed in 2022. Fairness in Women's Sports</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>KY SB83 - Fairness in Women's Sports Act</t>
+        </is>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>KY</t>
+        </is>
+      </c>
+      <c r="C174" t="n">
+        <v>2022</v>
+      </c>
+      <c r="D174" t="inlineStr"/>
+      <c r="E174" t="inlineStr"/>
+      <c r="F174" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G174" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H174" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I174" t="inlineStr">
+        <is>
+          <t>Passed in 2022. Fairness in Women's Sports Act</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>LA SB44 - Fairness in Women's Sports Act</t>
+        </is>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>LA</t>
+        </is>
+      </c>
+      <c r="C175" t="n">
+        <v>2022</v>
+      </c>
+      <c r="D175" t="inlineStr"/>
+      <c r="E175" t="inlineStr"/>
+      <c r="F175" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G175" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H175" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I175" t="inlineStr">
+        <is>
+          <t>Passed in 2022. Fairness in Women's Sports Act</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>LA HR158 - Gender-altering care study</t>
+        </is>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>LA</t>
+        </is>
+      </c>
+      <c r="C176" t="n">
+        <v>2022</v>
+      </c>
+      <c r="D176" t="inlineStr"/>
+      <c r="E176" t="inlineStr"/>
+      <c r="F176" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G176" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H176" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I176" t="inlineStr">
+        <is>
+          <t>Passed in 2022. Gender-altering care study</t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>OK SB2 - Save Women's Sports Act</t>
+        </is>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="C177" t="n">
+        <v>2022</v>
+      </c>
+      <c r="D177" t="inlineStr"/>
+      <c r="E177" t="inlineStr"/>
+      <c r="F177" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G177" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H177" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I177" t="inlineStr">
+        <is>
+          <t>Passed in 2022. Save Women's Sports Act</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>OK SB1100 - Birth certificate restrictions - non-binary ban</t>
+        </is>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="C178" t="n">
+        <v>2022</v>
+      </c>
+      <c r="D178" t="inlineStr"/>
+      <c r="E178" t="inlineStr"/>
+      <c r="F178" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G178" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H178" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I178" t="inlineStr">
+        <is>
+          <t>Passed in 2022. Birth certificate restrictions - non-binary ban</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>SC H4608 - Save Women's Sports Act</t>
+        </is>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>SC</t>
+        </is>
+      </c>
+      <c r="C179" t="n">
+        <v>2022</v>
+      </c>
+      <c r="D179" t="inlineStr"/>
+      <c r="E179" t="inlineStr"/>
+      <c r="F179" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G179" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H179" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I179" t="inlineStr">
+        <is>
+          <t>Passed in 2022. Save Women's Sports Act</t>
+        </is>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>SD SB46 - Fairness in Women's Sports</t>
+        </is>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>SD</t>
+        </is>
+      </c>
+      <c r="C180" t="n">
+        <v>2022</v>
+      </c>
+      <c r="D180" t="inlineStr"/>
+      <c r="E180" t="inlineStr"/>
+      <c r="F180" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G180" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H180" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I180" t="inlineStr">
+        <is>
+          <t>Passed in 2022. Fairness in Women's Sports</t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>TN HB2316 - Sports participation restrictions</t>
+        </is>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>TN</t>
+        </is>
+      </c>
+      <c r="C181" t="n">
+        <v>2022</v>
+      </c>
+      <c r="D181" t="inlineStr"/>
+      <c r="E181" t="inlineStr"/>
+      <c r="F181" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G181" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H181" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I181" t="inlineStr">
+        <is>
+          <t>Passed in 2022. Sports participation restrictions</t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>UT HB0011 - Transgender student participation restrictions</t>
+        </is>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>UT</t>
+        </is>
+      </c>
+      <c r="C182" t="n">
+        <v>2022</v>
+      </c>
+      <c r="D182" t="inlineStr"/>
+      <c r="E182" t="inlineStr"/>
+      <c r="F182" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G182" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H182" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I182" t="inlineStr">
+        <is>
+          <t>Passed in 2022. Transgender student participation restrictions</t>
+        </is>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>AR HB1570 - SAFE Act</t>
+        </is>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>AR</t>
+        </is>
+      </c>
+      <c r="C183" t="n">
+        <v>2021</v>
+      </c>
+      <c r="D183" t="inlineStr">
+        <is>
+          <t>2021-04-01</t>
+        </is>
+      </c>
+      <c r="E183" t="inlineStr">
+        <is>
+          <t>https://www.arkleg.state.ar.us/Bills/Detail?id=HB1570&amp;ddBienniumSession=2021%2F2021R</t>
+        </is>
+      </c>
+      <c r="F183" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G183" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H183" t="inlineStr">
+        <is>
+          <t>Vetoed (Override)</t>
+        </is>
+      </c>
+      <c r="I183" t="inlineStr">
+        <is>
+          <t>Vetoed by Governor Hutchinson in April 2021, but veto was overridden. First state to ban gender-affirming medical care for minors.</t>
+        </is>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>AR - Fairness in Women's Sports Act</t>
+        </is>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>AR</t>
+        </is>
+      </c>
+      <c r="C184" t="n">
+        <v>2021</v>
+      </c>
+      <c r="D184" t="inlineStr">
+        <is>
+          <t>2021-03-01</t>
+        </is>
+      </c>
+      <c r="E184" t="inlineStr">
+        <is>
+          <t>https://www.arkleg.state.ar.us/</t>
+        </is>
+      </c>
+      <c r="F184" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G184" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H184" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I184" t="inlineStr">
+        <is>
+          <t>Signed March 2021. Bans transgender girls from sports that align with their gender identity, elementary through college.</t>
+        </is>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>MS - Mississippi Fairness Act</t>
+        </is>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>MS</t>
+        </is>
+      </c>
+      <c r="C185" t="n">
+        <v>2021</v>
+      </c>
+      <c r="D185" t="inlineStr">
+        <is>
+          <t>2021-03-11</t>
+        </is>
+      </c>
+      <c r="E185" t="inlineStr">
+        <is>
+          <t>https://www.ms.gov/</t>
+        </is>
+      </c>
+      <c r="F185" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G185" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H185" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I185" t="inlineStr">
+        <is>
+          <t>Signed March 11, 2021. First statewide anti-trans law of 2021. Bans transgender girls and women from competing in women's sports.</t>
+        </is>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>TN - Anti-trans sports bill</t>
+        </is>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>TN</t>
+        </is>
+      </c>
+      <c r="C186" t="n">
+        <v>2021</v>
+      </c>
+      <c r="D186" t="inlineStr">
+        <is>
+          <t>2021-03-01</t>
+        </is>
+      </c>
+      <c r="E186" t="inlineStr">
+        <is>
+          <t>https://www.tn.gov/</t>
+        </is>
+      </c>
+      <c r="F186" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G186" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H186" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I186" t="inlineStr">
+        <is>
+          <t>Signed March 2021. Requires students to prove assigned sex at birth to play in middle and high school sports.</t>
+        </is>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>ID HB500 - Fairness in Women's Sports Act</t>
+        </is>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>ID</t>
+        </is>
+      </c>
+      <c r="C187" t="n">
+        <v>2020</v>
+      </c>
+      <c r="D187" t="inlineStr">
+        <is>
+          <t>2020-03-16</t>
+        </is>
+      </c>
+      <c r="E187" t="inlineStr">
+        <is>
+          <t>https://legislature.idaho.gov/sessioninfo/2020/legislation/H0500/</t>
+        </is>
+      </c>
+      <c r="F187" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G187" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H187" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I187" t="inlineStr">
+        <is>
+          <t>Signed March 2020. Banned transgender girls and women from competing in women's sports. Later blocked by federal court injunction in August 2020.</t>
+        </is>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>ID - Birth certificate gender marker ban</t>
+        </is>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>ID</t>
+        </is>
+      </c>
+      <c r="C188" t="n">
+        <v>2020</v>
+      </c>
+      <c r="D188" t="inlineStr">
+        <is>
+          <t>2020-03-01</t>
+        </is>
+      </c>
+      <c r="E188" t="inlineStr">
+        <is>
+          <t>https://www.nbcnews.com/feature/nbc-out/idaho-governor-signs-law-anti-transgender-legislation-n1172886</t>
+        </is>
+      </c>
+      <c r="F188" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G188" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H188" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I188" t="inlineStr">
+        <is>
+          <t>Prohibited transgender people from changing sex on birth certificates. Struck down by federal court as unconstitutional.</t>
         </is>
       </c>
     </row>
